--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A5D342-D584-43DB-BDE8-253D25555CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478160C-9AC8-495E-8214-1A8361F77F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>English</t>
   </si>
@@ -100,12 +103,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HinaHead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honentomori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨森</t>
+  </si>
+  <si>
+    <t>shito</t>
+  </si>
+  <si>
+    <t>使徒</t>
+    <rPh sb="0" eb="2">
+      <t>シト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒナメット1</t>
+  </si>
+  <si>
+    <t>ルカメット</t>
+  </si>
+  <si>
+    <t>LukaHead</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +153,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +472,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -505,6 +548,41 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
     </row>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478160C-9AC8-495E-8214-1A8361F77F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E504B3-C2D1-493B-A2A9-09D9DE51154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -125,13 +125,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヒナメット1</t>
-  </si>
-  <si>
     <t>ルカメット</t>
   </si>
   <si>
     <t>LukaHead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒナメット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gusao</t>
+  </si>
+  <si>
+    <t>ぐさお(本体)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -472,7 +480,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -556,30 +564,38 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E504B3-C2D1-493B-A2A9-09D9DE51154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007786E-6490-4821-982B-545BDE3B773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>English</t>
   </si>
@@ -140,6 +140,154 @@
   </si>
   <si>
     <t>ぐさお(本体)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2進数の動作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初に必殺技を出せ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueEye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も考えてない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディールメイカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DealMaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒ってしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ikari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクRTA走者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白桜の花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sakura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジト目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jitome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nemuri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠ってしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にゅん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょぼん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Syobon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンションMAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tentionmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKしよう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>okSiyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOと言わなければ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noToIwanakereba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日おめでとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HappyBirthdayToME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlackMesen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒目線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく見かけるもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VoidFace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虚無</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -600,22 +748,164 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+      <c r="A16" s="1">
+        <v>1001001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2007786E-6490-4821-982B-545BDE3B773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9092A7-ADDF-4B04-BE14-57237D4325D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Jitome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nemuri</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,6 +284,10 @@
   </si>
   <si>
     <t>虚無</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jitome</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M25" t="s">
         <v>45</v>
@@ -829,82 +829,82 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
         <v>47</v>
-      </c>
-      <c r="M26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
         <v>49</v>
-      </c>
-      <c r="M27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="s">
         <v>61</v>
-      </c>
-      <c r="M33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" t="s">
         <v>65</v>
-      </c>
-      <c r="M35" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9092A7-ADDF-4B04-BE14-57237D4325D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A547661-40BB-4284-9FCB-B559FF391E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>English</t>
   </si>
@@ -290,12 +290,39 @@
     <t>jitome</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>surprised</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚愕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admin作</t>
+    <rPh sb="5" eb="6">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bluefire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>邪眼が疼くぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,12 +336,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,12 +358,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,16 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,206 +723,227 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>1001001</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M18" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M28" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
+      <c r="A31" t="s">
+        <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>63</v>
+      <c r="A34" t="s">
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M37" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A547661-40BB-4284-9FCB-B559FF391E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BAF11-B632-4243-80BC-7CBEC6B655BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>English</t>
   </si>
@@ -315,6 +315,70 @@
   </si>
   <si>
     <t>邪眼が疼くぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>噛むぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoneEye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨が刺さった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キメ顔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口角無限大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中からこんにちは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これこそ無表情</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疑い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッグアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KoukakuInf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyoki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poyapoya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utagaimayu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJBigEye</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -643,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -930,19 +994,83 @@
         <v>65</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M38" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M48" t="s">
         <v>68</v>
       </c>
     </row>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BAF11-B632-4243-80BC-7CBEC6B655BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B92F5-20A5-4597-8CDA-07AC508DCD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>English</t>
   </si>
@@ -380,6 +380,34 @@
   <si>
     <t>YJBigEye</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kuwa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くわっ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワァ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minidekawaii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oyaki</t>
+  </si>
+  <si>
+    <t>おやき</t>
+  </si>
+  <si>
+    <t>onsen</t>
+  </si>
+  <si>
+    <t>10秒で書いた</t>
   </si>
 </sst>
 </file>
@@ -707,16 +735,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,284 +822,316 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>1001001</v>
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="1">
+        <v>1001001</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
+      <c r="A27" t="s">
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
+      <c r="A28" t="s">
+        <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
+      <c r="A33" t="s">
+        <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>59</v>
+      <c r="A34" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
+      <c r="A36" t="s">
+        <v>48</v>
       </c>
       <c r="M36" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
+      <c r="A37" t="s">
+        <v>51</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
+      <c r="A38" t="s">
+        <v>53</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>75</v>
+      <c r="A39" t="s">
+        <v>55</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>84</v>
+      <c r="A41" t="s">
+        <v>59</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M42" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M55" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="M58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B92F5-20A5-4597-8CDA-07AC508DCD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572CEB1C-6961-4BAA-92F9-AA0A19FB3C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kuwa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>くわっ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,6 +404,10 @@
   </si>
   <si>
     <t>10秒で書いた</t>
+  </si>
+  <si>
+    <t>Kuwa</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -824,18 +824,18 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
         <v>89</v>
-      </c>
-      <c r="M8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -1120,18 +1120,18 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" t="s">
         <v>93</v>
-      </c>
-      <c r="M58" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" t="s">
         <v>95</v>
-      </c>
-      <c r="M59" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572CEB1C-6961-4BAA-92F9-AA0A19FB3C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96284E7B-49E6-4A32-A176-AEF33EAA4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>English</t>
   </si>
@@ -407,6 +407,22 @@
   </si>
   <si>
     <t>Kuwa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>graffiti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落書き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Killing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殺意</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1134,6 +1150,22 @@
         <v>95</v>
       </c>
     </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="M61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="M62" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96284E7B-49E6-4A32-A176-AEF33EAA4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3EE322-2132-4B10-BF5C-0903B759D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>English</t>
   </si>
@@ -423,6 +423,46 @@
   </si>
   <si>
     <t>殺意</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kamaboko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueglass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noglass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fullset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アオブチメガーネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイザー文字反転対応できないのだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまぼこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼鏡っ娘の眼鏡をとろうとするな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくばりセット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -854,6 +894,46 @@
         <v>89</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3EE322-2132-4B10-BF5C-0903B759D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD6DFE-1FCD-42D2-9E54-9EC8B31CB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>English</t>
   </si>
@@ -465,12 +465,120 @@
     <t>よくばりセット</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>onore_Impostor</t>
+  </si>
+  <si>
+    <t>おのれインポスター！　このバイザーの文字の反転対応ができなかった！</t>
+  </si>
+  <si>
+    <t>onore_Jackal</t>
+  </si>
+  <si>
+    <t>おのれジャッカル！</t>
+  </si>
+  <si>
+    <t>tinfoil_hat</t>
+  </si>
+  <si>
+    <t>思考盗聴対策</t>
+  </si>
+  <si>
+    <t>bom_maimai</t>
+  </si>
+  <si>
+    <t>バクダンマイマイ</t>
+  </si>
+  <si>
+    <t>beer_maimai</t>
+  </si>
+  <si>
+    <t>ビールマイマイ</t>
+  </si>
+  <si>
+    <t>arumikan_turunoda</t>
+  </si>
+  <si>
+    <t>あるミカン（つるのだ）</t>
+  </si>
+  <si>
+    <t>arumikan_zundamon</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDAMON）</t>
+  </si>
+  <si>
+    <t>arumikan_zundanrg</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDANRG）</t>
+  </si>
+  <si>
+    <t>arumikan_grape</t>
+  </si>
+  <si>
+    <t>あるミカン（グレープ）</t>
+  </si>
+  <si>
+    <t>arumikan_tea</t>
+  </si>
+  <si>
+    <t>あるミカン（お茶）</t>
+  </si>
+  <si>
+    <t>arumikan_zunpis</t>
+  </si>
+  <si>
+    <t>あるミカン（ズンピス）</t>
+  </si>
+  <si>
+    <t>オヤキマイマイ</t>
+  </si>
+  <si>
+    <t>けーきまいまい</t>
+  </si>
+  <si>
+    <t>しっぽパン入りおやきマイマイ</t>
+  </si>
+  <si>
+    <t>ずんしっぽおやきマイマイ</t>
+  </si>
+  <si>
+    <t>プリンマイマイ</t>
+  </si>
+  <si>
+    <t>チョコミントマイマイ</t>
+  </si>
+  <si>
+    <t>oyaki_maimai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short_maimai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maimai_oyaki_reinoshippo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maimai_oyaki_zunshippo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maimai_purin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mint_maimai</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +592,32 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,16 +637,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{4132D476-9772-40B8-8487-FA1353260BDD}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1230,20 +1374,310 @@
         <v>95</v>
       </c>
     </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>97</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>99</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M65" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD6DFE-1FCD-42D2-9E54-9EC8B31CB525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5F0AA-E641-4EE9-9D5F-3207E579CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
   <si>
     <t>English</t>
   </si>
@@ -571,6 +571,61 @@
   </si>
   <si>
     <t>mint_maimai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brightface</t>
+  </si>
+  <si>
+    <t>Businessmen</t>
+  </si>
+  <si>
+    <t>会社員(人型専用)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照れ顔(人型専用)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supeshio</t>
+  </si>
+  <si>
+    <t>スペ塩作</t>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hige</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flowey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PhotoshopFlowey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例の花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォトショップフラウィー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -654,6 +709,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{4132D476-9772-40B8-8487-FA1353260BDD}"/>
@@ -935,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1680,6 +1736,62 @@
         <v>138</v>
       </c>
     </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>146</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5F0AA-E641-4EE9-9D5F-3207E579CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157F106-3014-4BD6-B5D7-4203D527756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>English</t>
   </si>
@@ -392,12 +392,6 @@
   <si>
     <t>minidekawaii</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>oyaki</t>
-  </si>
-  <si>
-    <t>おやき</t>
   </si>
   <si>
     <t>onsen</t>
@@ -696,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,7 +703,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{4132D476-9772-40B8-8487-FA1353260BDD}"/>
@@ -991,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1088,7 +1081,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
         <v>89</v>
@@ -1096,42 +1089,42 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
         <v>105</v>
-      </c>
-      <c r="M13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -1414,44 +1407,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>92</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M60" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="M59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1464,13 +1430,13 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>114</v>
+      <c r="M61" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1483,48 +1449,48 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="M64" t="s">
-        <v>98</v>
+      <c r="M62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="M66" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1538,12 +1504,12 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1557,12 +1523,12 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1576,12 +1542,12 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1595,12 +1561,12 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1614,93 +1580,93 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="6" t="s">
-        <v>132</v>
+      <c r="A74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M78" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1714,12 +1680,12 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
-        <v>144</v>
+      <c r="A80" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1733,63 +1699,82 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>145</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>146</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M84" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>150</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>151</v>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>152</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="M89" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="M91" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157F106-3014-4BD6-B5D7-4203D527756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D5AF82-F59D-4431-BF98-C90EC9F1FB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>English</t>
   </si>
@@ -620,6 +620,30 @@
   </si>
   <si>
     <t>フォトショップフラウィー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレバレな口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SmlieSmlie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rangeselection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImpMouth</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -986,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1391,19 +1415,43 @@
         <v>83</v>
       </c>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="M54" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M58" t="s">
         <v>68</v>
       </c>
     </row>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -508,76 +508,82 @@
     <t xml:space="preserve">フォトショップフラウィー</t>
   </si>
   <si>
-    <t xml:space="preserve">UzomuZo</t>
+    <t xml:space="preserve">UzomuZo </t>
   </si>
   <si>
     <t xml:space="preserve">ウゾーム象</t>
   </si>
   <si>
-    <t xml:space="preserve">EyeLight_Blue</t>
+    <t xml:space="preserve">EyeLight_Blue </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(青)</t>
   </si>
   <si>
-    <t xml:space="preserve">EyeLight_Green</t>
+    <t xml:space="preserve">EyeLight_Green </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(緑)</t>
   </si>
   <si>
-    <t xml:space="preserve">EyeLight_Red</t>
+    <t xml:space="preserve">EyeLight_Red </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(赤)</t>
   </si>
   <si>
-    <t xml:space="preserve">EyeLight_Yellow</t>
+    <t xml:space="preserve">EyeLight_Yellow </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(黄)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mono_EyeLight_Blue</t>
+    <t xml:space="preserve">Mono_EyeLight_Blue </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(青・単)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mono_EyeLight_Green</t>
+    <t xml:space="preserve">Mono_EyeLight_Green </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(緑・単)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mono_EyeLight_Red</t>
+    <t xml:space="preserve">Mono_EyeLight_Red </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(赤・単)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mono_EyeLight_Yellow</t>
+    <t xml:space="preserve">Mono_EyeLight_Yellow </t>
   </si>
   <si>
     <t xml:space="preserve">アイライト(黄・単)</t>
   </si>
   <si>
-    <t xml:space="preserve">Parasite</t>
+    <t xml:space="preserve">Parasite </t>
   </si>
   <si>
     <t xml:space="preserve">寄生者</t>
   </si>
   <si>
-    <t xml:space="preserve">Parasite_Green</t>
+    <t xml:space="preserve">Parasite_Green </t>
   </si>
   <si>
     <t xml:space="preserve">寄生者(緑)</t>
   </si>
   <si>
-    <t xml:space="preserve">RedEye</t>
+    <t xml:space="preserve">RedEye </t>
   </si>
   <si>
     <t xml:space="preserve">赤目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigMouth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大口</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,6 +708,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,13 +730,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M104" activeCellId="0" sqref="M104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -1537,100 +1547,109 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
         <v>162</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M94" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
         <v>166</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
         <v>168</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="s">
         <v>172</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
         <v>174</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
         <v>176</v>
       </c>
       <c r="M100" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
         <v>178</v>
       </c>
       <c r="M101" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
         <v>180</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
         <v>182</v>
       </c>
       <c r="M103" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
         <v>184</v>
       </c>
       <c r="M104" s="0" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeVisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF9FB8-6A34-4252-BC21-82DC7C92873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947CADA-F5A9-4BA0-91E4-0B31A7EDF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -513,28 +513,32 @@
     <t>フォトショップフラウィー</t>
   </si>
   <si>
-    <t xml:space="preserve">Parasite </t>
-  </si>
-  <si>
     <t>寄生者</t>
   </si>
   <si>
-    <t xml:space="preserve">Parasite_Green </t>
-  </si>
-  <si>
     <t>寄生者(緑)</t>
   </si>
   <si>
-    <t xml:space="preserve">RedEye </t>
-  </si>
-  <si>
     <t>赤目</t>
   </si>
   <si>
-    <t xml:space="preserve">BigMouth </t>
-  </si>
-  <si>
     <t>大口</t>
+  </si>
+  <si>
+    <t>RedEye</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Parasite_Green</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Parasite</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BigMouth</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -930,7 +934,7 @@
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1746,18 +1750,18 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M93" t="s">
         <v>162</v>
-      </c>
-      <c r="M93" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
@@ -1765,15 +1769,15 @@
         <v>166</v>
       </c>
       <c r="M95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M96" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeVisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947CADA-F5A9-4BA0-91E4-0B31A7EDF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924A3D90-3211-486B-BC19-ACA4F6B0B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="202">
   <si>
     <t>English</t>
   </si>
@@ -342,9 +342,6 @@
     <t>笑顔</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Admin作</t>
   </si>
   <si>
@@ -358,18 +355,6 @@
   </si>
   <si>
     <t>10秒で書いた</t>
-  </si>
-  <si>
-    <t>onore_Impostor</t>
-  </si>
-  <si>
-    <t>おのれインポスター！　このバイザーの文字の反転対応ができなかった！</t>
-  </si>
-  <si>
-    <t>onore_Jackal</t>
-  </si>
-  <si>
-    <t>おのれジャッカル！</t>
   </si>
   <si>
     <t>tinfoil_hat</t>
@@ -539,6 +524,118 @@
   <si>
     <t>BigMouth</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>live_V</t>
+  </si>
+  <si>
+    <t>ninshoBadge_V</t>
+  </si>
+  <si>
+    <t>saimin_V</t>
+  </si>
+  <si>
+    <t>sairiumu_V</t>
+  </si>
+  <si>
+    <t>mop_V</t>
+  </si>
+  <si>
+    <t>o2_V</t>
+  </si>
+  <si>
+    <t>eyemask_V</t>
+  </si>
+  <si>
+    <t>usbHacker_V</t>
+  </si>
+  <si>
+    <t>4gou_V</t>
+  </si>
+  <si>
+    <t>silverShield_V</t>
+  </si>
+  <si>
+    <t>thinking_V</t>
+  </si>
+  <si>
+    <t>madadesuka_V</t>
+  </si>
+  <si>
+    <t>breadeat_V</t>
+  </si>
+  <si>
+    <t>handmike_V</t>
+  </si>
+  <si>
+    <t>pcngus_V</t>
+  </si>
+  <si>
+    <t>sus_V</t>
+  </si>
+  <si>
+    <t>Arrow_V</t>
+  </si>
+  <si>
+    <t>OldGlass_V</t>
+  </si>
+  <si>
+    <t>配信中</t>
+  </si>
+  <si>
+    <t>認証バッジ</t>
+  </si>
+  <si>
+    <t>自分へ催眠術</t>
+  </si>
+  <si>
+    <t>サイリウム</t>
+  </si>
+  <si>
+    <t>モップ掛けを忘れずに</t>
+  </si>
+  <si>
+    <t>酸素はとっておこう</t>
+  </si>
+  <si>
+    <t>私は寝ていません</t>
+  </si>
+  <si>
+    <t>USBハッカー</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>銀の盾</t>
+  </si>
+  <si>
+    <t>悩み</t>
+  </si>
+  <si>
+    <t>まだですか？</t>
+  </si>
+  <si>
+    <t>パンはおいしい</t>
+  </si>
+  <si>
+    <t>歌え</t>
+  </si>
+  <si>
+    <t>カンニング</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>矢印</t>
+  </si>
+  <si>
+    <t>四角い顔</t>
   </si>
 </sst>
 </file>
@@ -931,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1362,282 +1459,177 @@
         <v>104</v>
       </c>
     </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M57" t="s">
-        <v>106</v>
+        <v>167</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" t="s">
         <v>107</v>
       </c>
-      <c r="M58" t="s">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="M78" t="s">
         <v>109</v>
       </c>
-      <c r="M60" t="s">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>117</v>
-      </c>
-      <c r="M65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1650,134 +1642,345 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="3" t="s">
+      <c r="M79" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="M82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
+      <c r="M99" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
         <v>149</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="M103" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M84" s="3" t="s">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="M104" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M85" s="3" t="s">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+      <c r="M106" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M87" s="3" t="s">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+      <c r="M107" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M88" s="3" t="s">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M110" t="s">
         <v>158</v>
       </c>
-      <c r="M90" s="3" t="s">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M112" t="s">
         <v>160</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M93" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M96" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeVisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924A3D90-3211-486B-BC19-ACA4F6B0B1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29D239-725C-454F-AAA0-26995817006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
   <si>
     <t>English</t>
   </si>
@@ -636,6 +636,48 @@
   </si>
   <si>
     <t>四角い顔</t>
+  </si>
+  <si>
+    <t>Annkomon</t>
+  </si>
+  <si>
+    <t>あんこもん</t>
+  </si>
+  <si>
+    <t>Guwa</t>
+  </si>
+  <si>
+    <t>四コマずんちゃん192話</t>
+  </si>
+  <si>
+    <t>Kashiwa_mini</t>
+  </si>
+  <si>
+    <t>かしわもち</t>
+  </si>
+  <si>
+    <t>OhagiA_mini</t>
+  </si>
+  <si>
+    <t>おはぎ（あんこ）</t>
+  </si>
+  <si>
+    <t>OhagiK_mini</t>
+  </si>
+  <si>
+    <t>おはぎ（きなこ）</t>
+  </si>
+  <si>
+    <t>Zunda_mini</t>
+  </si>
+  <si>
+    <t>ずんだ</t>
+  </si>
+  <si>
+    <t>Zunndamon</t>
+  </si>
+  <si>
+    <t>ずんだもん</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1983,6 +2025,139 @@
         <v>160</v>
       </c>
     </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeVisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29D239-725C-454F-AAA0-26995817006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF6D1CA-A062-471F-8A63-544EC5EED4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="226">
   <si>
     <t>English</t>
   </si>
@@ -678,6 +678,36 @@
   </si>
   <si>
     <t>ずんだもん</t>
+  </si>
+  <si>
+    <t>hekomi</t>
+  </si>
+  <si>
+    <t>へこみ</t>
+  </si>
+  <si>
+    <t>nakit-t</t>
+  </si>
+  <si>
+    <t>泣き顔</t>
+  </si>
+  <si>
+    <t>OneEye</t>
+  </si>
+  <si>
+    <t>一つ目</t>
+  </si>
+  <si>
+    <t>owata</t>
+  </si>
+  <si>
+    <t>諦め</t>
+  </si>
+  <si>
+    <t>pokan</t>
+  </si>
+  <si>
+    <t>ポカーン</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1645,516 +1675,611 @@
         <v>201</v>
       </c>
     </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M75" t="s">
-        <v>105</v>
+        <v>218</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M98" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-      <c r="M78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="M81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>114</v>
-      </c>
-      <c r="M82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>144</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>145</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="M100" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>147</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>148</v>
+      <c r="A101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>149</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>150</v>
+        <v>112</v>
+      </c>
+      <c r="M103" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="M104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>144</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>147</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>149</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>151</v>
       </c>
-      <c r="M104" s="3" t="s">
+      <c r="M126" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
         <v>153</v>
       </c>
-      <c r="M106" s="3" t="s">
+      <c r="M128" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>155</v>
       </c>
-      <c r="M107" s="3" t="s">
+      <c r="M129" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" s="7" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" s="7" t="s">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" s="7" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" s="7" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1" t="s">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1" t="s">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A116" s="1" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1" t="s">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" s="1" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1" t="s">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" s="1" t="s">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1" t="s">
         <v>215</v>
       </c>
     </row>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB01AE2-E826-4346-B70D-0750818BA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Hat" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hat" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7minfVoudMZfTFXF+wdeEGHP90jiHA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="282">
   <si>
     <t>English</t>
   </si>
@@ -528,394 +513,405 @@
     <t>えび</t>
   </si>
   <si>
+    <t>kirari</t>
+  </si>
+  <si>
+    <t>キラリ</t>
+  </si>
+  <si>
+    <t>peron</t>
+  </si>
+  <si>
+    <t>ぺろん</t>
+  </si>
+  <si>
+    <t>pokee</t>
+  </si>
+  <si>
+    <t>ぽけぇ</t>
+  </si>
+  <si>
+    <t>TongXinZhuangKuang</t>
+  </si>
+  <si>
+    <t>通信状況</t>
+  </si>
+  <si>
+    <t>XiuQiShiJian</t>
+  </si>
+  <si>
+    <t>休憩時間</t>
+  </si>
+  <si>
+    <t>Admin作</t>
+  </si>
+  <si>
+    <t>驚愕</t>
+  </si>
+  <si>
+    <t>10秒で書いた</t>
+  </si>
+  <si>
+    <t>思考盗聴対策</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Admin作</t>
-  </si>
-  <si>
     <t>surprised</t>
   </si>
   <si>
-    <t>驚愕</t>
+    <t>落書き</t>
+  </si>
+  <si>
+    <t>殺意</t>
   </si>
   <si>
     <t>onsen</t>
   </si>
   <si>
-    <t>10秒で書いた</t>
-  </si>
-  <si>
     <t>tinfoil_hat</t>
   </si>
   <si>
-    <t>思考盗聴対策</t>
+    <t>バクダンマイマイ</t>
+  </si>
+  <si>
+    <t>ビールマイマイ</t>
   </si>
   <si>
     <t>graffiti</t>
   </si>
   <si>
-    <t>落書き</t>
+    <t>あるミカン（つるのだ）</t>
   </si>
   <si>
     <t>Killing</t>
   </si>
   <si>
-    <t>殺意</t>
+    <t>あるミカン（ZUNDAMON）</t>
+  </si>
+  <si>
+    <t>あるミカン（ZUNDANRG）</t>
   </si>
   <si>
     <t>bom_maimai</t>
   </si>
   <si>
-    <t>バクダンマイマイ</t>
+    <t>あるミカン（グレープ）</t>
   </si>
   <si>
     <t>beer_maimai</t>
   </si>
   <si>
-    <t>ビールマイマイ</t>
+    <t>あるミカン（お茶）</t>
   </si>
   <si>
     <t>arumikan_turunoda</t>
   </si>
   <si>
-    <t>あるミカン（つるのだ）</t>
+    <t>あるミカン（ズンピス）</t>
   </si>
   <si>
     <t>arumikan_zundamon</t>
   </si>
   <si>
-    <t>あるミカン（ZUNDAMON）</t>
+    <t>オヤキマイマイ</t>
   </si>
   <si>
     <t>arumikan_zundanrg</t>
   </si>
   <si>
-    <t>あるミカン（ZUNDANRG）</t>
+    <t>けーきまいまい</t>
   </si>
   <si>
     <t>arumikan_grape</t>
   </si>
   <si>
-    <t>あるミカン（グレープ）</t>
+    <t>しっぽパン入りおやきマイマイ</t>
   </si>
   <si>
     <t>arumikan_tea</t>
   </si>
   <si>
-    <t>あるミカン（お茶）</t>
+    <t>ずんしっぽおやきマイマイ</t>
   </si>
   <si>
     <t>arumikan_zunpis</t>
   </si>
   <si>
-    <t>あるミカン（ズンピス）</t>
+    <t>プリンマイマイ</t>
   </si>
   <si>
     <t>oyaki_maimai</t>
   </si>
   <si>
-    <t>オヤキマイマイ</t>
+    <t>チョコミントマイマイ</t>
   </si>
   <si>
     <t>short_maimai</t>
   </si>
   <si>
-    <t>けーきまいまい</t>
-  </si>
-  <si>
     <t>maimai_oyaki_reinoshippo</t>
   </si>
   <si>
-    <t>しっぽパン入りおやきマイマイ</t>
+    <t>TV</t>
   </si>
   <si>
     <t>maimai_oyaki_zunshippo</t>
   </si>
   <si>
-    <t>ずんしっぽおやきマイマイ</t>
+    <t>照れ顔(人型専用)</t>
   </si>
   <si>
     <t>maimai_purin</t>
   </si>
   <si>
-    <t>プリンマイマイ</t>
+    <t>会社員(人型専用)</t>
   </si>
   <si>
     <t>mint_maimai</t>
   </si>
   <si>
-    <t>チョコミントマイマイ</t>
-  </si>
-  <si>
-    <t>TV</t>
+    <t>スペ塩作</t>
+  </si>
+  <si>
+    <t>ひげ</t>
   </si>
   <si>
     <t>Brightface</t>
   </si>
   <si>
-    <t>照れ顔(人型専用)</t>
-  </si>
-  <si>
     <t>Businessmen</t>
   </si>
   <si>
-    <t>会社員(人型専用)</t>
+    <t>例の花</t>
+  </si>
+  <si>
+    <t>フォトショップフラウィー</t>
   </si>
   <si>
     <t>supeshio</t>
   </si>
   <si>
-    <t>スペ塩作</t>
-  </si>
-  <si>
     <t>hige</t>
   </si>
   <si>
-    <t>ひげ</t>
+    <t>寄生者</t>
+  </si>
+  <si>
+    <t>寄生者(緑)</t>
   </si>
   <si>
     <t>Flowey</t>
   </si>
   <si>
-    <t>例の花</t>
+    <t>赤目</t>
   </si>
   <si>
     <t>PhotoshopFlowey</t>
   </si>
   <si>
-    <t>フォトショップフラウィー</t>
+    <t>大口</t>
+  </si>
+  <si>
+    <t>眼雷</t>
   </si>
   <si>
     <t>Parasite</t>
   </si>
   <si>
-    <t>寄生者</t>
+    <t>寄生者(亜種)</t>
   </si>
   <si>
     <t>Parasite_Green</t>
   </si>
   <si>
-    <t>寄生者(緑)</t>
+    <t>寄生者(青スライム)</t>
   </si>
   <si>
     <t>RedEye</t>
   </si>
   <si>
-    <t>赤目</t>
+    <t>寄生者(緑スライム)</t>
   </si>
   <si>
     <t>BigMouth</t>
   </si>
   <si>
-    <t>大口</t>
+    <t>寄生者(紫)</t>
   </si>
   <si>
     <t>EyeThunder</t>
   </si>
   <si>
-    <t>眼雷</t>
+    <t>寄生者(赤)</t>
   </si>
   <si>
     <t>Parasite_Another</t>
   </si>
   <si>
-    <t>寄生者(亜種)</t>
+    <t>寄生花</t>
   </si>
   <si>
     <t>Parasite_ClearBlue</t>
   </si>
   <si>
-    <t>寄生者(青スライム)</t>
+    <t>7の帽子 (単体)</t>
   </si>
   <si>
     <t>Parasite_ClearGreen</t>
-  </si>
-  <si>
-    <t>寄生者(緑スライム)</t>
-  </si>
-  <si>
-    <t>Parasite_Purple</t>
-  </si>
-  <si>
-    <t>寄生者(紫)</t>
-  </si>
-  <si>
-    <t>Parasite_Red</t>
-  </si>
-  <si>
-    <t>寄生者(赤)</t>
-  </si>
-  <si>
-    <t>Parasite_Rose</t>
-  </si>
-  <si>
-    <t>寄生花</t>
-  </si>
-  <si>
-    <t>7Cap</t>
-  </si>
-  <si>
-    <t>7の帽子 (単体)</t>
-  </si>
-  <si>
-    <t>7Cap_with_Hair</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>7の帽子 (</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <sz val="11.0"/>
       </rPr>
       <t>髪付き</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <sz val="11.0"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
+    <t>Parasite_Purple</t>
+  </si>
+  <si>
+    <t>金のサークレット(青)</t>
+  </si>
+  <si>
+    <t>Parasite_Red</t>
+  </si>
+  <si>
+    <t>金のサークレット(緑)</t>
+  </si>
+  <si>
+    <t>Parasite_Rose</t>
+  </si>
+  <si>
+    <t>金のサークレット(赤)</t>
+  </si>
+  <si>
+    <t>7Cap</t>
+  </si>
+  <si>
+    <t>金の王冠</t>
+  </si>
+  <si>
+    <t>7Cap_with_Hair</t>
+  </si>
+  <si>
+    <t>怪人の仮面(半)</t>
+  </si>
+  <si>
     <t>GoldCircletB</t>
   </si>
   <si>
-    <t>金のサークレット(青)</t>
+    <t>怪人の仮面(全)</t>
   </si>
   <si>
     <t>GoldCircletG</t>
   </si>
   <si>
-    <t>金のサークレット(緑)</t>
-  </si>
-  <si>
     <t>GoldCircletR</t>
   </si>
   <si>
-    <t>金のサークレット(赤)</t>
-  </si>
-  <si>
     <t>GoldCrown</t>
   </si>
   <si>
-    <t>金の王冠</t>
+    <t>あんこもん</t>
   </si>
   <si>
     <t>PhantomMask</t>
   </si>
   <si>
-    <t>怪人の仮面(半)</t>
+    <t>四コマずんちゃん192話</t>
   </si>
   <si>
     <t>PhantomMask2</t>
   </si>
   <si>
-    <t>怪人の仮面(全)</t>
+    <t>かしわもち</t>
+  </si>
+  <si>
+    <t>おはぎ（あんこ）</t>
+  </si>
+  <si>
+    <t>おはぎ（きなこ）</t>
   </si>
   <si>
     <t>Annkomon</t>
   </si>
   <si>
-    <t>あんこもん</t>
+    <t>ずんだ</t>
   </si>
   <si>
     <t>Guwa</t>
   </si>
   <si>
-    <t>四コマずんちゃん192話</t>
+    <t>ずんだもん</t>
   </si>
   <si>
     <t>Kashiwa_mini</t>
   </si>
   <si>
-    <t>かしわもち</t>
-  </si>
-  <si>
     <t>OhagiA_mini</t>
   </si>
   <si>
-    <t>おはぎ（あんこ）</t>
+    <t>いいね！ボタン</t>
   </si>
   <si>
     <t>OhagiK_mini</t>
   </si>
   <si>
-    <t>おはぎ（きなこ）</t>
-  </si>
-  <si>
     <t>Zunda_mini</t>
   </si>
   <si>
-    <t>ずんだ</t>
-  </si>
-  <si>
     <t>Zunndamon</t>
   </si>
   <si>
-    <t>ずんだもん</t>
-  </si>
-  <si>
     <t>GoodButton</t>
-  </si>
-  <si>
-    <t>いいね！ボタン</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -923,74 +919,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1014,113 +994,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="游ゴシック"/>
+        <a:ea typeface="游ゴシック"/>
+        <a:cs typeface="游ゴシック"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="游ゴシック"/>
+        <a:ea typeface="游ゴシック"/>
+        <a:cs typeface="游ゴシック"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1261,1468 +1147,2380 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="13" max="13" width="38.875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.63"/>
+    <col customWidth="1" min="2" max="2" width="7.0"/>
+    <col customWidth="1" min="3" max="12" width="8.63"/>
+    <col customWidth="1" min="13" max="13" width="38.88"/>
+    <col customWidth="1" min="14" max="26" width="8.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+    <row r="2" ht="18.75" customHeight="1"/>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+    <row r="5" ht="18.75" customHeight="1"/>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
+    <row r="14" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1"/>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="19" ht="18.75" customHeight="1"/>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    <row r="21" ht="18.75" customHeight="1"/>
+    <row r="22" ht="18.75" customHeight="1"/>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1">
-        <v>1001001</v>
-      </c>
-      <c r="M25" t="s">
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="2">
+        <v>1001001.0</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1" t="s">
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1" t="s">
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1" t="s">
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1" t="s">
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1" t="s">
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1" t="s">
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1" t="s">
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1" t="s">
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1" t="s">
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1" t="s">
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1" t="s">
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1" t="s">
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1" t="s">
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1" t="s">
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1" t="s">
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1" t="s">
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1" t="s">
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1" t="s">
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1" t="s">
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1" t="s">
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1" t="s">
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1" t="s">
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1" t="s">
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1" t="s">
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1" t="s">
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1" t="s">
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1" t="s">
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M86" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1" t="s">
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M87" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
-      <c r="A105" t="s">
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M88" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="2" t="s">
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" t="s">
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M90" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" t="s">
+    <row r="91" ht="18.75" customHeight="1"/>
+    <row r="92" ht="18.75" customHeight="1"/>
+    <row r="93" ht="18.75" customHeight="1"/>
+    <row r="94" ht="18.75" customHeight="1"/>
+    <row r="95" ht="18.75" customHeight="1"/>
+    <row r="96" ht="18.75" customHeight="1"/>
+    <row r="97" ht="18.75" customHeight="1"/>
+    <row r="98" ht="18.75" customHeight="1"/>
+    <row r="99" ht="18.75" customHeight="1"/>
+    <row r="100" ht="18.75" customHeight="1"/>
+    <row r="101" ht="18.75" customHeight="1"/>
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="M102" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M109" t="s">
+    </row>
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="M103" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="3" t="s">
+    <row r="104" ht="18.75" customHeight="1"/>
+    <row r="105" ht="18.75" customHeight="1">
+      <c r="M105" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="3" t="s">
+    </row>
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="3" t="s">
+    <row r="107" ht="18.75" customHeight="1">
+      <c r="A107" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="3" t="s">
+    </row>
+    <row r="108" ht="18.75" customHeight="1">
+      <c r="A108" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="3" t="s">
+      <c r="M108" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="3" t="s">
+    </row>
+    <row r="109" ht="18.75" customHeight="1">
+      <c r="M109" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="3" t="s">
+    <row r="110" ht="18.75" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="3" t="s">
+    </row>
+    <row r="111" ht="18.75" customHeight="1">
+      <c r="A111" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="3" t="s">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="3" t="s">
+    </row>
+    <row r="112" ht="18.75" customHeight="1">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="3" t="s">
+    <row r="113" ht="18.75" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="3" t="s">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="3" t="s">
+    <row r="114" ht="18.75" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M117" s="3" t="s">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="115" ht="18.75" customHeight="1">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" ht="18.75" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" ht="18.75" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" ht="18.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" ht="18.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>198</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" ht="18.75" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" ht="18.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="3" t="s">
+      <c r="M121" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="3" t="s">
+    </row>
+    <row r="122" ht="18.75" customHeight="1">
+      <c r="A122" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" t="s">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M126" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" t="s">
+    </row>
+    <row r="123" ht="18.75" customHeight="1">
+      <c r="A123" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M127" s="3" t="s">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="A128" t="s">
+    <row r="124" ht="18.75" customHeight="1">
+      <c r="A124" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="M128" s="3" t="s">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
-      <c r="A130" t="s">
+    <row r="125" ht="18.75" customHeight="1">
+      <c r="A125" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M130" s="3" t="s">
+    </row>
+    <row r="126" ht="18.75" customHeight="1">
+      <c r="A126" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" t="s">
+      <c r="M126" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M131" s="3" t="s">
+    </row>
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="A127" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" t="s">
+      <c r="M127" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M133" s="3" t="s">
+    </row>
+    <row r="128" ht="18.75" customHeight="1">
+      <c r="A128" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" t="s">
+      <c r="M128" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="M134" s="3" t="s">
+    </row>
+    <row r="129" ht="18.75" customHeight="1">
+      <c r="A129" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="7" t="s">
+    <row r="130" ht="18.75" customHeight="1">
+      <c r="M130" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M136" t="s">
+    </row>
+    <row r="131" ht="18.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M131" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="7" t="s">
+    <row r="132" ht="18.75" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M137" t="s">
+    </row>
+    <row r="133" ht="18.75" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="7" t="s">
+      <c r="M133" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M138" t="s">
+    </row>
+    <row r="134" ht="18.75" customHeight="1">
+      <c r="M134" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="7" t="s">
+    <row r="135" ht="18.75" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M139" t="s">
+    </row>
+    <row r="136" ht="18.75" customHeight="1">
+      <c r="A136" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="7" t="s">
+      <c r="M136" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M140" t="s">
+    </row>
+    <row r="137" ht="18.75" customHeight="1">
+      <c r="M137" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="7" t="s">
+    <row r="138" ht="18.75" customHeight="1">
+      <c r="A138" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M138" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="7" t="s">
+    <row r="139" ht="18.75" customHeight="1">
+      <c r="A139" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M139" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="7" t="s">
+    <row r="140" ht="18.75" customHeight="1">
+      <c r="M140" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M143" t="s">
+    </row>
+    <row r="141" ht="18.75" customHeight="1">
+      <c r="A141" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="7" t="s">
+      <c r="M141" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M144" t="s">
+    </row>
+    <row r="142" ht="18.75" customHeight="1">
+      <c r="A142" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="7" t="s">
+      <c r="M142" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M145" t="s">
+    </row>
+    <row r="143" ht="18.75" customHeight="1">
+      <c r="A143" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="7" t="s">
+      <c r="M143" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M146" t="s">
+    </row>
+    <row r="144" ht="18.75" customHeight="1">
+      <c r="A144" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="13.9">
-      <c r="A147" s="7" t="s">
+      <c r="M144" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M147" t="s">
+    </row>
+    <row r="145" ht="18.75" customHeight="1">
+      <c r="A145" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="13.9">
-      <c r="A148" s="8" t="s">
+      <c r="M145" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M148" t="s">
+    </row>
+    <row r="146" ht="18.75" customHeight="1">
+      <c r="A146" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="13.9">
-      <c r="A149" s="8" t="s">
+      <c r="M146" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M149" t="s">
+    </row>
+    <row r="147" ht="18.75" customHeight="1">
+      <c r="A147" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="13.9">
-      <c r="A150" s="8" t="s">
+      <c r="M147" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M150" t="s">
+    </row>
+    <row r="148" ht="18.75" customHeight="1">
+      <c r="A148" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="13.9">
-      <c r="A151" s="8" t="s">
+      <c r="M148" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M151" t="s">
+    </row>
+    <row r="149" ht="18.75" customHeight="1">
+      <c r="A149" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="13.9">
-      <c r="A152" s="8" t="s">
+      <c r="M149" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M152" t="s">
+    </row>
+    <row r="150" ht="18.75" customHeight="1">
+      <c r="A150" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="13.9">
-      <c r="A153" s="7" t="s">
+      <c r="M150" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M153" s="9" t="s">
+    </row>
+    <row r="151" ht="18.75" customHeight="1">
+      <c r="A151" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="13.9">
-      <c r="A154" s="7" t="s">
+      <c r="M151" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M154" s="9" t="s">
+    </row>
+    <row r="152" ht="18.75" customHeight="1">
+      <c r="A152" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="13.9">
-      <c r="A155" s="7"/>
-      <c r="M155" s="9"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="1" t="s">
+      <c r="M152" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1" t="s">
+    </row>
+    <row r="153" ht="18.75" customHeight="1">
+      <c r="A153" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="1" t="s">
+      <c r="M153" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1" t="s">
+    </row>
+    <row r="154" ht="18.75" customHeight="1">
+      <c r="A154" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="1" t="s">
+      <c r="M154" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1" t="s">
+    </row>
+    <row r="155" ht="18.75" customHeight="1">
+      <c r="A155" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="1" t="s">
+      <c r="M155" s="4"/>
+    </row>
+    <row r="156" ht="18.75" customHeight="1">
+      <c r="A156" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1" t="s">
+    </row>
+    <row r="157" ht="18.75" customHeight="1">
+      <c r="A157" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="1" t="s">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1" t="s">
+    </row>
+    <row r="158" ht="18.75" customHeight="1">
+      <c r="A158" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="1" t="s">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1" t="s">
+    </row>
+    <row r="159" ht="18.75" customHeight="1">
+      <c r="A159" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="1" t="s">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1" t="s">
+    </row>
+    <row r="160" ht="18.75" customHeight="1">
+      <c r="A160" s="6"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
-      <c r="A165" t="s">
+    <row r="161" ht="18.75" customHeight="1">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M165" t="s">
+    </row>
+    <row r="162" ht="18.75" customHeight="1">
+      <c r="A162" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" ht="18.75" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" ht="18.75" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="165" ht="18.75" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" ht="18.75" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" ht="18.75" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" ht="18.75" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" ht="18.75" customHeight="1"/>
+    <row r="170" ht="18.75" customHeight="1">
+      <c r="A170" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="171" ht="18.75" customHeight="1"/>
+    <row r="172" ht="18.75" customHeight="1"/>
+    <row r="173" ht="18.75" customHeight="1"/>
+    <row r="174" ht="18.75" customHeight="1"/>
+    <row r="175" ht="18.75" customHeight="1"/>
+    <row r="176" ht="18.75" customHeight="1"/>
+    <row r="177" ht="18.75" customHeight="1"/>
+    <row r="178" ht="18.75" customHeight="1"/>
+    <row r="179" ht="18.75" customHeight="1"/>
+    <row r="180" ht="18.75" customHeight="1"/>
+    <row r="181" ht="18.75" customHeight="1"/>
+    <row r="182" ht="18.75" customHeight="1"/>
+    <row r="183" ht="18.75" customHeight="1"/>
+    <row r="184" ht="18.75" customHeight="1"/>
+    <row r="185" ht="18.75" customHeight="1"/>
+    <row r="186" ht="18.75" customHeight="1"/>
+    <row r="187" ht="18.75" customHeight="1"/>
+    <row r="188" ht="18.75" customHeight="1"/>
+    <row r="189" ht="18.75" customHeight="1"/>
+    <row r="190" ht="18.75" customHeight="1"/>
+    <row r="191" ht="18.75" customHeight="1"/>
+    <row r="192" ht="18.75" customHeight="1"/>
+    <row r="193" ht="18.75" customHeight="1"/>
+    <row r="194" ht="18.75" customHeight="1"/>
+    <row r="195" ht="18.75" customHeight="1"/>
+    <row r="196" ht="18.75" customHeight="1"/>
+    <row r="197" ht="18.75" customHeight="1"/>
+    <row r="198" ht="18.75" customHeight="1"/>
+    <row r="199" ht="18.75" customHeight="1"/>
+    <row r="200" ht="18.75" customHeight="1"/>
+    <row r="201" ht="18.75" customHeight="1"/>
+    <row r="202" ht="18.75" customHeight="1"/>
+    <row r="203" ht="18.75" customHeight="1"/>
+    <row r="204" ht="18.75" customHeight="1"/>
+    <row r="205" ht="18.75" customHeight="1"/>
+    <row r="206" ht="18.75" customHeight="1"/>
+    <row r="207" ht="18.75" customHeight="1"/>
+    <row r="208" ht="18.75" customHeight="1"/>
+    <row r="209" ht="18.75" customHeight="1"/>
+    <row r="210" ht="18.75" customHeight="1"/>
+    <row r="211" ht="18.75" customHeight="1"/>
+    <row r="212" ht="18.75" customHeight="1"/>
+    <row r="213" ht="18.75" customHeight="1"/>
+    <row r="214" ht="18.75" customHeight="1"/>
+    <row r="215" ht="18.75" customHeight="1"/>
+    <row r="216" ht="18.75" customHeight="1"/>
+    <row r="217" ht="18.75" customHeight="1"/>
+    <row r="218" ht="18.75" customHeight="1"/>
+    <row r="219" ht="18.75" customHeight="1"/>
+    <row r="220" ht="18.75" customHeight="1"/>
+    <row r="221" ht="18.75" customHeight="1"/>
+    <row r="222" ht="18.75" customHeight="1"/>
+    <row r="223" ht="18.75" customHeight="1"/>
+    <row r="224" ht="18.75" customHeight="1"/>
+    <row r="225" ht="18.75" customHeight="1"/>
+    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="227" ht="18.75" customHeight="1"/>
+    <row r="228" ht="18.75" customHeight="1"/>
+    <row r="229" ht="18.75" customHeight="1"/>
+    <row r="230" ht="18.75" customHeight="1"/>
+    <row r="231" ht="18.75" customHeight="1"/>
+    <row r="232" ht="18.75" customHeight="1"/>
+    <row r="233" ht="18.75" customHeight="1"/>
+    <row r="234" ht="18.75" customHeight="1"/>
+    <row r="235" ht="18.75" customHeight="1"/>
+    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="237" ht="18.75" customHeight="1"/>
+    <row r="238" ht="18.75" customHeight="1"/>
+    <row r="239" ht="18.75" customHeight="1"/>
+    <row r="240" ht="18.75" customHeight="1"/>
+    <row r="241" ht="18.75" customHeight="1"/>
+    <row r="242" ht="18.75" customHeight="1"/>
+    <row r="243" ht="18.75" customHeight="1"/>
+    <row r="244" ht="18.75" customHeight="1"/>
+    <row r="245" ht="18.75" customHeight="1"/>
+    <row r="246" ht="18.75" customHeight="1"/>
+    <row r="247" ht="18.75" customHeight="1"/>
+    <row r="248" ht="18.75" customHeight="1"/>
+    <row r="249" ht="18.75" customHeight="1"/>
+    <row r="250" ht="18.75" customHeight="1"/>
+    <row r="251" ht="18.75" customHeight="1"/>
+    <row r="252" ht="18.75" customHeight="1"/>
+    <row r="253" ht="18.75" customHeight="1"/>
+    <row r="254" ht="18.75" customHeight="1"/>
+    <row r="255" ht="18.75" customHeight="1"/>
+    <row r="256" ht="18.75" customHeight="1"/>
+    <row r="257" ht="18.75" customHeight="1"/>
+    <row r="258" ht="18.75" customHeight="1"/>
+    <row r="259" ht="18.75" customHeight="1"/>
+    <row r="260" ht="18.75" customHeight="1"/>
+    <row r="261" ht="18.75" customHeight="1"/>
+    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="263" ht="18.75" customHeight="1"/>
+    <row r="264" ht="18.75" customHeight="1"/>
+    <row r="265" ht="18.75" customHeight="1"/>
+    <row r="266" ht="18.75" customHeight="1"/>
+    <row r="267" ht="18.75" customHeight="1"/>
+    <row r="268" ht="18.75" customHeight="1"/>
+    <row r="269" ht="18.75" customHeight="1"/>
+    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="271" ht="18.75" customHeight="1"/>
+    <row r="272" ht="18.75" customHeight="1"/>
+    <row r="273" ht="18.75" customHeight="1"/>
+    <row r="274" ht="18.75" customHeight="1"/>
+    <row r="275" ht="18.75" customHeight="1"/>
+    <row r="276" ht="18.75" customHeight="1"/>
+    <row r="277" ht="18.75" customHeight="1"/>
+    <row r="278" ht="18.75" customHeight="1"/>
+    <row r="279" ht="18.75" customHeight="1"/>
+    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="281" ht="18.75" customHeight="1"/>
+    <row r="282" ht="18.75" customHeight="1"/>
+    <row r="283" ht="18.75" customHeight="1"/>
+    <row r="284" ht="18.75" customHeight="1"/>
+    <row r="285" ht="18.75" customHeight="1"/>
+    <row r="286" ht="18.75" customHeight="1"/>
+    <row r="287" ht="18.75" customHeight="1"/>
+    <row r="288" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1"/>
+    <row r="290" ht="18.75" customHeight="1"/>
+    <row r="291" ht="18.75" customHeight="1"/>
+    <row r="292" ht="18.75" customHeight="1"/>
+    <row r="293" ht="18.75" customHeight="1"/>
+    <row r="294" ht="18.75" customHeight="1"/>
+    <row r="295" ht="18.75" customHeight="1"/>
+    <row r="296" ht="18.75" customHeight="1"/>
+    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1"/>
+    <row r="299" ht="18.75" customHeight="1"/>
+    <row r="300" ht="18.75" customHeight="1"/>
+    <row r="301" ht="18.75" customHeight="1"/>
+    <row r="302" ht="18.75" customHeight="1"/>
+    <row r="303" ht="18.75" customHeight="1"/>
+    <row r="304" ht="18.75" customHeight="1"/>
+    <row r="305" ht="18.75" customHeight="1"/>
+    <row r="306" ht="18.75" customHeight="1"/>
+    <row r="307" ht="18.75" customHeight="1"/>
+    <row r="308" ht="18.75" customHeight="1"/>
+    <row r="309" ht="18.75" customHeight="1"/>
+    <row r="310" ht="18.75" customHeight="1"/>
+    <row r="311" ht="18.75" customHeight="1"/>
+    <row r="312" ht="18.75" customHeight="1"/>
+    <row r="313" ht="18.75" customHeight="1"/>
+    <row r="314" ht="18.75" customHeight="1"/>
+    <row r="315" ht="18.75" customHeight="1"/>
+    <row r="316" ht="18.75" customHeight="1"/>
+    <row r="317" ht="18.75" customHeight="1"/>
+    <row r="318" ht="18.75" customHeight="1"/>
+    <row r="319" ht="18.75" customHeight="1"/>
+    <row r="320" ht="18.75" customHeight="1"/>
+    <row r="321" ht="18.75" customHeight="1"/>
+    <row r="322" ht="18.75" customHeight="1"/>
+    <row r="323" ht="18.75" customHeight="1"/>
+    <row r="324" ht="18.75" customHeight="1"/>
+    <row r="325" ht="18.75" customHeight="1"/>
+    <row r="326" ht="18.75" customHeight="1"/>
+    <row r="327" ht="18.75" customHeight="1"/>
+    <row r="328" ht="18.75" customHeight="1"/>
+    <row r="329" ht="18.75" customHeight="1"/>
+    <row r="330" ht="18.75" customHeight="1"/>
+    <row r="331" ht="18.75" customHeight="1"/>
+    <row r="332" ht="18.75" customHeight="1"/>
+    <row r="333" ht="18.75" customHeight="1"/>
+    <row r="334" ht="18.75" customHeight="1"/>
+    <row r="335" ht="18.75" customHeight="1"/>
+    <row r="336" ht="18.75" customHeight="1"/>
+    <row r="337" ht="18.75" customHeight="1"/>
+    <row r="338" ht="18.75" customHeight="1"/>
+    <row r="339" ht="18.75" customHeight="1"/>
+    <row r="340" ht="18.75" customHeight="1"/>
+    <row r="341" ht="18.75" customHeight="1"/>
+    <row r="342" ht="18.75" customHeight="1"/>
+    <row r="343" ht="18.75" customHeight="1"/>
+    <row r="344" ht="18.75" customHeight="1"/>
+    <row r="345" ht="18.75" customHeight="1"/>
+    <row r="346" ht="18.75" customHeight="1"/>
+    <row r="347" ht="18.75" customHeight="1"/>
+    <row r="348" ht="18.75" customHeight="1"/>
+    <row r="349" ht="18.75" customHeight="1"/>
+    <row r="350" ht="18.75" customHeight="1"/>
+    <row r="351" ht="18.75" customHeight="1"/>
+    <row r="352" ht="18.75" customHeight="1"/>
+    <row r="353" ht="18.75" customHeight="1"/>
+    <row r="354" ht="18.75" customHeight="1"/>
+    <row r="355" ht="18.75" customHeight="1"/>
+    <row r="356" ht="18.75" customHeight="1"/>
+    <row r="357" ht="18.75" customHeight="1"/>
+    <row r="358" ht="18.75" customHeight="1"/>
+    <row r="359" ht="18.75" customHeight="1"/>
+    <row r="360" ht="18.75" customHeight="1"/>
+    <row r="361" ht="18.75" customHeight="1"/>
+    <row r="362" ht="18.75" customHeight="1"/>
+    <row r="363" ht="18.75" customHeight="1"/>
+    <row r="364" ht="18.75" customHeight="1"/>
+    <row r="365" ht="18.75" customHeight="1"/>
+    <row r="366" ht="18.75" customHeight="1"/>
+    <row r="367" ht="18.75" customHeight="1"/>
+    <row r="368" ht="18.75" customHeight="1"/>
+    <row r="369" ht="18.75" customHeight="1"/>
+    <row r="370" ht="18.75" customHeight="1"/>
+    <row r="371" ht="18.75" customHeight="1"/>
+    <row r="372" ht="18.75" customHeight="1"/>
+    <row r="373" ht="18.75" customHeight="1"/>
+    <row r="374" ht="18.75" customHeight="1"/>
+    <row r="375" ht="18.75" customHeight="1"/>
+    <row r="376" ht="18.75" customHeight="1"/>
+    <row r="377" ht="18.75" customHeight="1"/>
+    <row r="378" ht="18.75" customHeight="1"/>
+    <row r="379" ht="18.75" customHeight="1"/>
+    <row r="380" ht="18.75" customHeight="1"/>
+    <row r="381" ht="18.75" customHeight="1"/>
+    <row r="382" ht="18.75" customHeight="1"/>
+    <row r="383" ht="18.75" customHeight="1"/>
+    <row r="384" ht="18.75" customHeight="1"/>
+    <row r="385" ht="18.75" customHeight="1"/>
+    <row r="386" ht="18.75" customHeight="1"/>
+    <row r="387" ht="18.75" customHeight="1"/>
+    <row r="388" ht="18.75" customHeight="1"/>
+    <row r="389" ht="18.75" customHeight="1"/>
+    <row r="390" ht="18.75" customHeight="1"/>
+    <row r="391" ht="18.75" customHeight="1"/>
+    <row r="392" ht="18.75" customHeight="1"/>
+    <row r="393" ht="18.75" customHeight="1"/>
+    <row r="394" ht="18.75" customHeight="1"/>
+    <row r="395" ht="18.75" customHeight="1"/>
+    <row r="396" ht="18.75" customHeight="1"/>
+    <row r="397" ht="18.75" customHeight="1"/>
+    <row r="398" ht="18.75" customHeight="1"/>
+    <row r="399" ht="18.75" customHeight="1"/>
+    <row r="400" ht="18.75" customHeight="1"/>
+    <row r="401" ht="18.75" customHeight="1"/>
+    <row r="402" ht="18.75" customHeight="1"/>
+    <row r="403" ht="18.75" customHeight="1"/>
+    <row r="404" ht="18.75" customHeight="1"/>
+    <row r="405" ht="18.75" customHeight="1"/>
+    <row r="406" ht="18.75" customHeight="1"/>
+    <row r="407" ht="18.75" customHeight="1"/>
+    <row r="408" ht="18.75" customHeight="1"/>
+    <row r="409" ht="18.75" customHeight="1"/>
+    <row r="410" ht="18.75" customHeight="1"/>
+    <row r="411" ht="18.75" customHeight="1"/>
+    <row r="412" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1"/>
+    <row r="414" ht="18.75" customHeight="1"/>
+    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="416" ht="18.75" customHeight="1"/>
+    <row r="417" ht="18.75" customHeight="1"/>
+    <row r="418" ht="18.75" customHeight="1"/>
+    <row r="419" ht="18.75" customHeight="1"/>
+    <row r="420" ht="18.75" customHeight="1"/>
+    <row r="421" ht="18.75" customHeight="1"/>
+    <row r="422" ht="18.75" customHeight="1"/>
+    <row r="423" ht="18.75" customHeight="1"/>
+    <row r="424" ht="18.75" customHeight="1"/>
+    <row r="425" ht="18.75" customHeight="1"/>
+    <row r="426" ht="18.75" customHeight="1"/>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1"/>
+    <row r="430" ht="18.75" customHeight="1"/>
+    <row r="431" ht="18.75" customHeight="1"/>
+    <row r="432" ht="18.75" customHeight="1"/>
+    <row r="433" ht="18.75" customHeight="1"/>
+    <row r="434" ht="18.75" customHeight="1"/>
+    <row r="435" ht="18.75" customHeight="1"/>
+    <row r="436" ht="18.75" customHeight="1"/>
+    <row r="437" ht="18.75" customHeight="1"/>
+    <row r="438" ht="18.75" customHeight="1"/>
+    <row r="439" ht="18.75" customHeight="1"/>
+    <row r="440" ht="18.75" customHeight="1"/>
+    <row r="441" ht="18.75" customHeight="1"/>
+    <row r="442" ht="18.75" customHeight="1"/>
+    <row r="443" ht="18.75" customHeight="1"/>
+    <row r="444" ht="18.75" customHeight="1"/>
+    <row r="445" ht="18.75" customHeight="1"/>
+    <row r="446" ht="18.75" customHeight="1"/>
+    <row r="447" ht="18.75" customHeight="1"/>
+    <row r="448" ht="18.75" customHeight="1"/>
+    <row r="449" ht="18.75" customHeight="1"/>
+    <row r="450" ht="18.75" customHeight="1"/>
+    <row r="451" ht="18.75" customHeight="1"/>
+    <row r="452" ht="18.75" customHeight="1"/>
+    <row r="453" ht="18.75" customHeight="1"/>
+    <row r="454" ht="18.75" customHeight="1"/>
+    <row r="455" ht="18.75" customHeight="1"/>
+    <row r="456" ht="18.75" customHeight="1"/>
+    <row r="457" ht="18.75" customHeight="1"/>
+    <row r="458" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1"/>
+    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="461" ht="18.75" customHeight="1"/>
+    <row r="462" ht="18.75" customHeight="1"/>
+    <row r="463" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1"/>
+    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="466" ht="18.75" customHeight="1"/>
+    <row r="467" ht="18.75" customHeight="1"/>
+    <row r="468" ht="18.75" customHeight="1"/>
+    <row r="469" ht="18.75" customHeight="1"/>
+    <row r="470" ht="18.75" customHeight="1"/>
+    <row r="471" ht="18.75" customHeight="1"/>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
+    <row r="475" ht="18.75" customHeight="1"/>
+    <row r="476" ht="18.75" customHeight="1"/>
+    <row r="477" ht="18.75" customHeight="1"/>
+    <row r="478" ht="18.75" customHeight="1"/>
+    <row r="479" ht="18.75" customHeight="1"/>
+    <row r="480" ht="18.75" customHeight="1"/>
+    <row r="481" ht="18.75" customHeight="1"/>
+    <row r="482" ht="18.75" customHeight="1"/>
+    <row r="483" ht="18.75" customHeight="1"/>
+    <row r="484" ht="18.75" customHeight="1"/>
+    <row r="485" ht="18.75" customHeight="1"/>
+    <row r="486" ht="18.75" customHeight="1"/>
+    <row r="487" ht="18.75" customHeight="1"/>
+    <row r="488" ht="18.75" customHeight="1"/>
+    <row r="489" ht="18.75" customHeight="1"/>
+    <row r="490" ht="18.75" customHeight="1"/>
+    <row r="491" ht="18.75" customHeight="1"/>
+    <row r="492" ht="18.75" customHeight="1"/>
+    <row r="493" ht="18.75" customHeight="1"/>
+    <row r="494" ht="18.75" customHeight="1"/>
+    <row r="495" ht="18.75" customHeight="1"/>
+    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="497" ht="18.75" customHeight="1"/>
+    <row r="498" ht="18.75" customHeight="1"/>
+    <row r="499" ht="18.75" customHeight="1"/>
+    <row r="500" ht="18.75" customHeight="1"/>
+    <row r="501" ht="18.75" customHeight="1"/>
+    <row r="502" ht="18.75" customHeight="1"/>
+    <row r="503" ht="18.75" customHeight="1"/>
+    <row r="504" ht="18.75" customHeight="1"/>
+    <row r="505" ht="18.75" customHeight="1"/>
+    <row r="506" ht="18.75" customHeight="1"/>
+    <row r="507" ht="18.75" customHeight="1"/>
+    <row r="508" ht="18.75" customHeight="1"/>
+    <row r="509" ht="18.75" customHeight="1"/>
+    <row r="510" ht="18.75" customHeight="1"/>
+    <row r="511" ht="18.75" customHeight="1"/>
+    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="513" ht="18.75" customHeight="1"/>
+    <row r="514" ht="18.75" customHeight="1"/>
+    <row r="515" ht="18.75" customHeight="1"/>
+    <row r="516" ht="18.75" customHeight="1"/>
+    <row r="517" ht="18.75" customHeight="1"/>
+    <row r="518" ht="18.75" customHeight="1"/>
+    <row r="519" ht="18.75" customHeight="1"/>
+    <row r="520" ht="18.75" customHeight="1"/>
+    <row r="521" ht="18.75" customHeight="1"/>
+    <row r="522" ht="18.75" customHeight="1"/>
+    <row r="523" ht="18.75" customHeight="1"/>
+    <row r="524" ht="18.75" customHeight="1"/>
+    <row r="525" ht="18.75" customHeight="1"/>
+    <row r="526" ht="18.75" customHeight="1"/>
+    <row r="527" ht="18.75" customHeight="1"/>
+    <row r="528" ht="18.75" customHeight="1"/>
+    <row r="529" ht="18.75" customHeight="1"/>
+    <row r="530" ht="18.75" customHeight="1"/>
+    <row r="531" ht="18.75" customHeight="1"/>
+    <row r="532" ht="18.75" customHeight="1"/>
+    <row r="533" ht="18.75" customHeight="1"/>
+    <row r="534" ht="18.75" customHeight="1"/>
+    <row r="535" ht="18.75" customHeight="1"/>
+    <row r="536" ht="18.75" customHeight="1"/>
+    <row r="537" ht="18.75" customHeight="1"/>
+    <row r="538" ht="18.75" customHeight="1"/>
+    <row r="539" ht="18.75" customHeight="1"/>
+    <row r="540" ht="18.75" customHeight="1"/>
+    <row r="541" ht="18.75" customHeight="1"/>
+    <row r="542" ht="18.75" customHeight="1"/>
+    <row r="543" ht="18.75" customHeight="1"/>
+    <row r="544" ht="18.75" customHeight="1"/>
+    <row r="545" ht="18.75" customHeight="1"/>
+    <row r="546" ht="18.75" customHeight="1"/>
+    <row r="547" ht="18.75" customHeight="1"/>
+    <row r="548" ht="18.75" customHeight="1"/>
+    <row r="549" ht="18.75" customHeight="1"/>
+    <row r="550" ht="18.75" customHeight="1"/>
+    <row r="551" ht="18.75" customHeight="1"/>
+    <row r="552" ht="18.75" customHeight="1"/>
+    <row r="553" ht="18.75" customHeight="1"/>
+    <row r="554" ht="18.75" customHeight="1"/>
+    <row r="555" ht="18.75" customHeight="1"/>
+    <row r="556" ht="18.75" customHeight="1"/>
+    <row r="557" ht="18.75" customHeight="1"/>
+    <row r="558" ht="18.75" customHeight="1"/>
+    <row r="559" ht="18.75" customHeight="1"/>
+    <row r="560" ht="18.75" customHeight="1"/>
+    <row r="561" ht="18.75" customHeight="1"/>
+    <row r="562" ht="18.75" customHeight="1"/>
+    <row r="563" ht="18.75" customHeight="1"/>
+    <row r="564" ht="18.75" customHeight="1"/>
+    <row r="565" ht="18.75" customHeight="1"/>
+    <row r="566" ht="18.75" customHeight="1"/>
+    <row r="567" ht="18.75" customHeight="1"/>
+    <row r="568" ht="18.75" customHeight="1"/>
+    <row r="569" ht="18.75" customHeight="1"/>
+    <row r="570" ht="18.75" customHeight="1"/>
+    <row r="571" ht="18.75" customHeight="1"/>
+    <row r="572" ht="18.75" customHeight="1"/>
+    <row r="573" ht="18.75" customHeight="1"/>
+    <row r="574" ht="18.75" customHeight="1"/>
+    <row r="575" ht="18.75" customHeight="1"/>
+    <row r="576" ht="18.75" customHeight="1"/>
+    <row r="577" ht="18.75" customHeight="1"/>
+    <row r="578" ht="18.75" customHeight="1"/>
+    <row r="579" ht="18.75" customHeight="1"/>
+    <row r="580" ht="18.75" customHeight="1"/>
+    <row r="581" ht="18.75" customHeight="1"/>
+    <row r="582" ht="18.75" customHeight="1"/>
+    <row r="583" ht="18.75" customHeight="1"/>
+    <row r="584" ht="18.75" customHeight="1"/>
+    <row r="585" ht="18.75" customHeight="1"/>
+    <row r="586" ht="18.75" customHeight="1"/>
+    <row r="587" ht="18.75" customHeight="1"/>
+    <row r="588" ht="18.75" customHeight="1"/>
+    <row r="589" ht="18.75" customHeight="1"/>
+    <row r="590" ht="18.75" customHeight="1"/>
+    <row r="591" ht="18.75" customHeight="1"/>
+    <row r="592" ht="18.75" customHeight="1"/>
+    <row r="593" ht="18.75" customHeight="1"/>
+    <row r="594" ht="18.75" customHeight="1"/>
+    <row r="595" ht="18.75" customHeight="1"/>
+    <row r="596" ht="18.75" customHeight="1"/>
+    <row r="597" ht="18.75" customHeight="1"/>
+    <row r="598" ht="18.75" customHeight="1"/>
+    <row r="599" ht="18.75" customHeight="1"/>
+    <row r="600" ht="18.75" customHeight="1"/>
+    <row r="601" ht="18.75" customHeight="1"/>
+    <row r="602" ht="18.75" customHeight="1"/>
+    <row r="603" ht="18.75" customHeight="1"/>
+    <row r="604" ht="18.75" customHeight="1"/>
+    <row r="605" ht="18.75" customHeight="1"/>
+    <row r="606" ht="18.75" customHeight="1"/>
+    <row r="607" ht="18.75" customHeight="1"/>
+    <row r="608" ht="18.75" customHeight="1"/>
+    <row r="609" ht="18.75" customHeight="1"/>
+    <row r="610" ht="18.75" customHeight="1"/>
+    <row r="611" ht="18.75" customHeight="1"/>
+    <row r="612" ht="18.75" customHeight="1"/>
+    <row r="613" ht="18.75" customHeight="1"/>
+    <row r="614" ht="18.75" customHeight="1"/>
+    <row r="615" ht="18.75" customHeight="1"/>
+    <row r="616" ht="18.75" customHeight="1"/>
+    <row r="617" ht="18.75" customHeight="1"/>
+    <row r="618" ht="18.75" customHeight="1"/>
+    <row r="619" ht="18.75" customHeight="1"/>
+    <row r="620" ht="18.75" customHeight="1"/>
+    <row r="621" ht="18.75" customHeight="1"/>
+    <row r="622" ht="18.75" customHeight="1"/>
+    <row r="623" ht="18.75" customHeight="1"/>
+    <row r="624" ht="18.75" customHeight="1"/>
+    <row r="625" ht="18.75" customHeight="1"/>
+    <row r="626" ht="18.75" customHeight="1"/>
+    <row r="627" ht="18.75" customHeight="1"/>
+    <row r="628" ht="18.75" customHeight="1"/>
+    <row r="629" ht="18.75" customHeight="1"/>
+    <row r="630" ht="18.75" customHeight="1"/>
+    <row r="631" ht="18.75" customHeight="1"/>
+    <row r="632" ht="18.75" customHeight="1"/>
+    <row r="633" ht="18.75" customHeight="1"/>
+    <row r="634" ht="18.75" customHeight="1"/>
+    <row r="635" ht="18.75" customHeight="1"/>
+    <row r="636" ht="18.75" customHeight="1"/>
+    <row r="637" ht="18.75" customHeight="1"/>
+    <row r="638" ht="18.75" customHeight="1"/>
+    <row r="639" ht="18.75" customHeight="1"/>
+    <row r="640" ht="18.75" customHeight="1"/>
+    <row r="641" ht="18.75" customHeight="1"/>
+    <row r="642" ht="18.75" customHeight="1"/>
+    <row r="643" ht="18.75" customHeight="1"/>
+    <row r="644" ht="18.75" customHeight="1"/>
+    <row r="645" ht="18.75" customHeight="1"/>
+    <row r="646" ht="18.75" customHeight="1"/>
+    <row r="647" ht="18.75" customHeight="1"/>
+    <row r="648" ht="18.75" customHeight="1"/>
+    <row r="649" ht="18.75" customHeight="1"/>
+    <row r="650" ht="18.75" customHeight="1"/>
+    <row r="651" ht="18.75" customHeight="1"/>
+    <row r="652" ht="18.75" customHeight="1"/>
+    <row r="653" ht="18.75" customHeight="1"/>
+    <row r="654" ht="18.75" customHeight="1"/>
+    <row r="655" ht="18.75" customHeight="1"/>
+    <row r="656" ht="18.75" customHeight="1"/>
+    <row r="657" ht="18.75" customHeight="1"/>
+    <row r="658" ht="18.75" customHeight="1"/>
+    <row r="659" ht="18.75" customHeight="1"/>
+    <row r="660" ht="18.75" customHeight="1"/>
+    <row r="661" ht="18.75" customHeight="1"/>
+    <row r="662" ht="18.75" customHeight="1"/>
+    <row r="663" ht="18.75" customHeight="1"/>
+    <row r="664" ht="18.75" customHeight="1"/>
+    <row r="665" ht="18.75" customHeight="1"/>
+    <row r="666" ht="18.75" customHeight="1"/>
+    <row r="667" ht="18.75" customHeight="1"/>
+    <row r="668" ht="18.75" customHeight="1"/>
+    <row r="669" ht="18.75" customHeight="1"/>
+    <row r="670" ht="18.75" customHeight="1"/>
+    <row r="671" ht="18.75" customHeight="1"/>
+    <row r="672" ht="18.75" customHeight="1"/>
+    <row r="673" ht="18.75" customHeight="1"/>
+    <row r="674" ht="18.75" customHeight="1"/>
+    <row r="675" ht="18.75" customHeight="1"/>
+    <row r="676" ht="18.75" customHeight="1"/>
+    <row r="677" ht="18.75" customHeight="1"/>
+    <row r="678" ht="18.75" customHeight="1"/>
+    <row r="679" ht="18.75" customHeight="1"/>
+    <row r="680" ht="18.75" customHeight="1"/>
+    <row r="681" ht="18.75" customHeight="1"/>
+    <row r="682" ht="18.75" customHeight="1"/>
+    <row r="683" ht="18.75" customHeight="1"/>
+    <row r="684" ht="18.75" customHeight="1"/>
+    <row r="685" ht="18.75" customHeight="1"/>
+    <row r="686" ht="18.75" customHeight="1"/>
+    <row r="687" ht="18.75" customHeight="1"/>
+    <row r="688" ht="18.75" customHeight="1"/>
+    <row r="689" ht="18.75" customHeight="1"/>
+    <row r="690" ht="18.75" customHeight="1"/>
+    <row r="691" ht="18.75" customHeight="1"/>
+    <row r="692" ht="18.75" customHeight="1"/>
+    <row r="693" ht="18.75" customHeight="1"/>
+    <row r="694" ht="18.75" customHeight="1"/>
+    <row r="695" ht="18.75" customHeight="1"/>
+    <row r="696" ht="18.75" customHeight="1"/>
+    <row r="697" ht="18.75" customHeight="1"/>
+    <row r="698" ht="18.75" customHeight="1"/>
+    <row r="699" ht="18.75" customHeight="1"/>
+    <row r="700" ht="18.75" customHeight="1"/>
+    <row r="701" ht="18.75" customHeight="1"/>
+    <row r="702" ht="18.75" customHeight="1"/>
+    <row r="703" ht="18.75" customHeight="1"/>
+    <row r="704" ht="18.75" customHeight="1"/>
+    <row r="705" ht="18.75" customHeight="1"/>
+    <row r="706" ht="18.75" customHeight="1"/>
+    <row r="707" ht="18.75" customHeight="1"/>
+    <row r="708" ht="18.75" customHeight="1"/>
+    <row r="709" ht="18.75" customHeight="1"/>
+    <row r="710" ht="18.75" customHeight="1"/>
+    <row r="711" ht="18.75" customHeight="1"/>
+    <row r="712" ht="18.75" customHeight="1"/>
+    <row r="713" ht="18.75" customHeight="1"/>
+    <row r="714" ht="18.75" customHeight="1"/>
+    <row r="715" ht="18.75" customHeight="1"/>
+    <row r="716" ht="18.75" customHeight="1"/>
+    <row r="717" ht="18.75" customHeight="1"/>
+    <row r="718" ht="18.75" customHeight="1"/>
+    <row r="719" ht="18.75" customHeight="1"/>
+    <row r="720" ht="18.75" customHeight="1"/>
+    <row r="721" ht="18.75" customHeight="1"/>
+    <row r="722" ht="18.75" customHeight="1"/>
+    <row r="723" ht="18.75" customHeight="1"/>
+    <row r="724" ht="18.75" customHeight="1"/>
+    <row r="725" ht="18.75" customHeight="1"/>
+    <row r="726" ht="18.75" customHeight="1"/>
+    <row r="727" ht="18.75" customHeight="1"/>
+    <row r="728" ht="18.75" customHeight="1"/>
+    <row r="729" ht="18.75" customHeight="1"/>
+    <row r="730" ht="18.75" customHeight="1"/>
+    <row r="731" ht="18.75" customHeight="1"/>
+    <row r="732" ht="18.75" customHeight="1"/>
+    <row r="733" ht="18.75" customHeight="1"/>
+    <row r="734" ht="18.75" customHeight="1"/>
+    <row r="735" ht="18.75" customHeight="1"/>
+    <row r="736" ht="18.75" customHeight="1"/>
+    <row r="737" ht="18.75" customHeight="1"/>
+    <row r="738" ht="18.75" customHeight="1"/>
+    <row r="739" ht="18.75" customHeight="1"/>
+    <row r="740" ht="18.75" customHeight="1"/>
+    <row r="741" ht="18.75" customHeight="1"/>
+    <row r="742" ht="18.75" customHeight="1"/>
+    <row r="743" ht="18.75" customHeight="1"/>
+    <row r="744" ht="18.75" customHeight="1"/>
+    <row r="745" ht="18.75" customHeight="1"/>
+    <row r="746" ht="18.75" customHeight="1"/>
+    <row r="747" ht="18.75" customHeight="1"/>
+    <row r="748" ht="18.75" customHeight="1"/>
+    <row r="749" ht="18.75" customHeight="1"/>
+    <row r="750" ht="18.75" customHeight="1"/>
+    <row r="751" ht="18.75" customHeight="1"/>
+    <row r="752" ht="18.75" customHeight="1"/>
+    <row r="753" ht="18.75" customHeight="1"/>
+    <row r="754" ht="18.75" customHeight="1"/>
+    <row r="755" ht="18.75" customHeight="1"/>
+    <row r="756" ht="18.75" customHeight="1"/>
+    <row r="757" ht="18.75" customHeight="1"/>
+    <row r="758" ht="18.75" customHeight="1"/>
+    <row r="759" ht="18.75" customHeight="1"/>
+    <row r="760" ht="18.75" customHeight="1"/>
+    <row r="761" ht="18.75" customHeight="1"/>
+    <row r="762" ht="18.75" customHeight="1"/>
+    <row r="763" ht="18.75" customHeight="1"/>
+    <row r="764" ht="18.75" customHeight="1"/>
+    <row r="765" ht="18.75" customHeight="1"/>
+    <row r="766" ht="18.75" customHeight="1"/>
+    <row r="767" ht="18.75" customHeight="1"/>
+    <row r="768" ht="18.75" customHeight="1"/>
+    <row r="769" ht="18.75" customHeight="1"/>
+    <row r="770" ht="18.75" customHeight="1"/>
+    <row r="771" ht="18.75" customHeight="1"/>
+    <row r="772" ht="18.75" customHeight="1"/>
+    <row r="773" ht="18.75" customHeight="1"/>
+    <row r="774" ht="18.75" customHeight="1"/>
+    <row r="775" ht="18.75" customHeight="1"/>
+    <row r="776" ht="18.75" customHeight="1"/>
+    <row r="777" ht="18.75" customHeight="1"/>
+    <row r="778" ht="18.75" customHeight="1"/>
+    <row r="779" ht="18.75" customHeight="1"/>
+    <row r="780" ht="18.75" customHeight="1"/>
+    <row r="781" ht="18.75" customHeight="1"/>
+    <row r="782" ht="18.75" customHeight="1"/>
+    <row r="783" ht="18.75" customHeight="1"/>
+    <row r="784" ht="18.75" customHeight="1"/>
+    <row r="785" ht="18.75" customHeight="1"/>
+    <row r="786" ht="18.75" customHeight="1"/>
+    <row r="787" ht="18.75" customHeight="1"/>
+    <row r="788" ht="18.75" customHeight="1"/>
+    <row r="789" ht="18.75" customHeight="1"/>
+    <row r="790" ht="18.75" customHeight="1"/>
+    <row r="791" ht="18.75" customHeight="1"/>
+    <row r="792" ht="18.75" customHeight="1"/>
+    <row r="793" ht="18.75" customHeight="1"/>
+    <row r="794" ht="18.75" customHeight="1"/>
+    <row r="795" ht="18.75" customHeight="1"/>
+    <row r="796" ht="18.75" customHeight="1"/>
+    <row r="797" ht="18.75" customHeight="1"/>
+    <row r="798" ht="18.75" customHeight="1"/>
+    <row r="799" ht="18.75" customHeight="1"/>
+    <row r="800" ht="18.75" customHeight="1"/>
+    <row r="801" ht="18.75" customHeight="1"/>
+    <row r="802" ht="18.75" customHeight="1"/>
+    <row r="803" ht="18.75" customHeight="1"/>
+    <row r="804" ht="18.75" customHeight="1"/>
+    <row r="805" ht="18.75" customHeight="1"/>
+    <row r="806" ht="18.75" customHeight="1"/>
+    <row r="807" ht="18.75" customHeight="1"/>
+    <row r="808" ht="18.75" customHeight="1"/>
+    <row r="809" ht="18.75" customHeight="1"/>
+    <row r="810" ht="18.75" customHeight="1"/>
+    <row r="811" ht="18.75" customHeight="1"/>
+    <row r="812" ht="18.75" customHeight="1"/>
+    <row r="813" ht="18.75" customHeight="1"/>
+    <row r="814" ht="18.75" customHeight="1"/>
+    <row r="815" ht="18.75" customHeight="1"/>
+    <row r="816" ht="18.75" customHeight="1"/>
+    <row r="817" ht="18.75" customHeight="1"/>
+    <row r="818" ht="18.75" customHeight="1"/>
+    <row r="819" ht="18.75" customHeight="1"/>
+    <row r="820" ht="18.75" customHeight="1"/>
+    <row r="821" ht="18.75" customHeight="1"/>
+    <row r="822" ht="18.75" customHeight="1"/>
+    <row r="823" ht="18.75" customHeight="1"/>
+    <row r="824" ht="18.75" customHeight="1"/>
+    <row r="825" ht="18.75" customHeight="1"/>
+    <row r="826" ht="18.75" customHeight="1"/>
+    <row r="827" ht="18.75" customHeight="1"/>
+    <row r="828" ht="18.75" customHeight="1"/>
+    <row r="829" ht="18.75" customHeight="1"/>
+    <row r="830" ht="18.75" customHeight="1"/>
+    <row r="831" ht="18.75" customHeight="1"/>
+    <row r="832" ht="18.75" customHeight="1"/>
+    <row r="833" ht="18.75" customHeight="1"/>
+    <row r="834" ht="18.75" customHeight="1"/>
+    <row r="835" ht="18.75" customHeight="1"/>
+    <row r="836" ht="18.75" customHeight="1"/>
+    <row r="837" ht="18.75" customHeight="1"/>
+    <row r="838" ht="18.75" customHeight="1"/>
+    <row r="839" ht="18.75" customHeight="1"/>
+    <row r="840" ht="18.75" customHeight="1"/>
+    <row r="841" ht="18.75" customHeight="1"/>
+    <row r="842" ht="18.75" customHeight="1"/>
+    <row r="843" ht="18.75" customHeight="1"/>
+    <row r="844" ht="18.75" customHeight="1"/>
+    <row r="845" ht="18.75" customHeight="1"/>
+    <row r="846" ht="18.75" customHeight="1"/>
+    <row r="847" ht="18.75" customHeight="1"/>
+    <row r="848" ht="18.75" customHeight="1"/>
+    <row r="849" ht="18.75" customHeight="1"/>
+    <row r="850" ht="18.75" customHeight="1"/>
+    <row r="851" ht="18.75" customHeight="1"/>
+    <row r="852" ht="18.75" customHeight="1"/>
+    <row r="853" ht="18.75" customHeight="1"/>
+    <row r="854" ht="18.75" customHeight="1"/>
+    <row r="855" ht="18.75" customHeight="1"/>
+    <row r="856" ht="18.75" customHeight="1"/>
+    <row r="857" ht="18.75" customHeight="1"/>
+    <row r="858" ht="18.75" customHeight="1"/>
+    <row r="859" ht="18.75" customHeight="1"/>
+    <row r="860" ht="18.75" customHeight="1"/>
+    <row r="861" ht="18.75" customHeight="1"/>
+    <row r="862" ht="18.75" customHeight="1"/>
+    <row r="863" ht="18.75" customHeight="1"/>
+    <row r="864" ht="18.75" customHeight="1"/>
+    <row r="865" ht="18.75" customHeight="1"/>
+    <row r="866" ht="18.75" customHeight="1"/>
+    <row r="867" ht="18.75" customHeight="1"/>
+    <row r="868" ht="18.75" customHeight="1"/>
+    <row r="869" ht="18.75" customHeight="1"/>
+    <row r="870" ht="18.75" customHeight="1"/>
+    <row r="871" ht="18.75" customHeight="1"/>
+    <row r="872" ht="18.75" customHeight="1"/>
+    <row r="873" ht="18.75" customHeight="1"/>
+    <row r="874" ht="18.75" customHeight="1"/>
+    <row r="875" ht="18.75" customHeight="1"/>
+    <row r="876" ht="18.75" customHeight="1"/>
+    <row r="877" ht="18.75" customHeight="1"/>
+    <row r="878" ht="18.75" customHeight="1"/>
+    <row r="879" ht="18.75" customHeight="1"/>
+    <row r="880" ht="18.75" customHeight="1"/>
+    <row r="881" ht="18.75" customHeight="1"/>
+    <row r="882" ht="18.75" customHeight="1"/>
+    <row r="883" ht="18.75" customHeight="1"/>
+    <row r="884" ht="18.75" customHeight="1"/>
+    <row r="885" ht="18.75" customHeight="1"/>
+    <row r="886" ht="18.75" customHeight="1"/>
+    <row r="887" ht="18.75" customHeight="1"/>
+    <row r="888" ht="18.75" customHeight="1"/>
+    <row r="889" ht="18.75" customHeight="1"/>
+    <row r="890" ht="18.75" customHeight="1"/>
+    <row r="891" ht="18.75" customHeight="1"/>
+    <row r="892" ht="18.75" customHeight="1"/>
+    <row r="893" ht="18.75" customHeight="1"/>
+    <row r="894" ht="18.75" customHeight="1"/>
+    <row r="895" ht="18.75" customHeight="1"/>
+    <row r="896" ht="18.75" customHeight="1"/>
+    <row r="897" ht="18.75" customHeight="1"/>
+    <row r="898" ht="18.75" customHeight="1"/>
+    <row r="899" ht="18.75" customHeight="1"/>
+    <row r="900" ht="18.75" customHeight="1"/>
+    <row r="901" ht="18.75" customHeight="1"/>
+    <row r="902" ht="18.75" customHeight="1"/>
+    <row r="903" ht="18.75" customHeight="1"/>
+    <row r="904" ht="18.75" customHeight="1"/>
+    <row r="905" ht="18.75" customHeight="1"/>
+    <row r="906" ht="18.75" customHeight="1"/>
+    <row r="907" ht="18.75" customHeight="1"/>
+    <row r="908" ht="18.75" customHeight="1"/>
+    <row r="909" ht="18.75" customHeight="1"/>
+    <row r="910" ht="18.75" customHeight="1"/>
+    <row r="911" ht="18.75" customHeight="1"/>
+    <row r="912" ht="18.75" customHeight="1"/>
+    <row r="913" ht="18.75" customHeight="1"/>
+    <row r="914" ht="18.75" customHeight="1"/>
+    <row r="915" ht="18.75" customHeight="1"/>
+    <row r="916" ht="18.75" customHeight="1"/>
+    <row r="917" ht="18.75" customHeight="1"/>
+    <row r="918" ht="18.75" customHeight="1"/>
+    <row r="919" ht="18.75" customHeight="1"/>
+    <row r="920" ht="18.75" customHeight="1"/>
+    <row r="921" ht="18.75" customHeight="1"/>
+    <row r="922" ht="18.75" customHeight="1"/>
+    <row r="923" ht="18.75" customHeight="1"/>
+    <row r="924" ht="18.75" customHeight="1"/>
+    <row r="925" ht="18.75" customHeight="1"/>
+    <row r="926" ht="18.75" customHeight="1"/>
+    <row r="927" ht="18.75" customHeight="1"/>
+    <row r="928" ht="18.75" customHeight="1"/>
+    <row r="929" ht="18.75" customHeight="1"/>
+    <row r="930" ht="18.75" customHeight="1"/>
+    <row r="931" ht="18.75" customHeight="1"/>
+    <row r="932" ht="18.75" customHeight="1"/>
+    <row r="933" ht="18.75" customHeight="1"/>
+    <row r="934" ht="18.75" customHeight="1"/>
+    <row r="935" ht="18.75" customHeight="1"/>
+    <row r="936" ht="18.75" customHeight="1"/>
+    <row r="937" ht="18.75" customHeight="1"/>
+    <row r="938" ht="18.75" customHeight="1"/>
+    <row r="939" ht="18.75" customHeight="1"/>
+    <row r="940" ht="18.75" customHeight="1"/>
+    <row r="941" ht="18.75" customHeight="1"/>
+    <row r="942" ht="18.75" customHeight="1"/>
+    <row r="943" ht="18.75" customHeight="1"/>
+    <row r="944" ht="18.75" customHeight="1"/>
+    <row r="945" ht="18.75" customHeight="1"/>
+    <row r="946" ht="18.75" customHeight="1"/>
+    <row r="947" ht="18.75" customHeight="1"/>
+    <row r="948" ht="18.75" customHeight="1"/>
+    <row r="949" ht="18.75" customHeight="1"/>
+    <row r="950" ht="18.75" customHeight="1"/>
+    <row r="951" ht="18.75" customHeight="1"/>
+    <row r="952" ht="18.75" customHeight="1"/>
+    <row r="953" ht="18.75" customHeight="1"/>
+    <row r="954" ht="18.75" customHeight="1"/>
+    <row r="955" ht="18.75" customHeight="1"/>
+    <row r="956" ht="18.75" customHeight="1"/>
+    <row r="957" ht="18.75" customHeight="1"/>
+    <row r="958" ht="18.75" customHeight="1"/>
+    <row r="959" ht="18.75" customHeight="1"/>
+    <row r="960" ht="18.75" customHeight="1"/>
+    <row r="961" ht="18.75" customHeight="1"/>
+    <row r="962" ht="18.75" customHeight="1"/>
+    <row r="963" ht="18.75" customHeight="1"/>
+    <row r="964" ht="18.75" customHeight="1"/>
+    <row r="965" ht="18.75" customHeight="1"/>
+    <row r="966" ht="18.75" customHeight="1"/>
+    <row r="967" ht="18.75" customHeight="1"/>
+    <row r="968" ht="18.75" customHeight="1"/>
+    <row r="969" ht="18.75" customHeight="1"/>
+    <row r="970" ht="18.75" customHeight="1"/>
+    <row r="971" ht="18.75" customHeight="1"/>
+    <row r="972" ht="18.75" customHeight="1"/>
+    <row r="973" ht="18.75" customHeight="1"/>
+    <row r="974" ht="18.75" customHeight="1"/>
+    <row r="975" ht="18.75" customHeight="1"/>
+    <row r="976" ht="18.75" customHeight="1"/>
+    <row r="977" ht="18.75" customHeight="1"/>
+    <row r="978" ht="18.75" customHeight="1"/>
+    <row r="979" ht="18.75" customHeight="1"/>
+    <row r="980" ht="18.75" customHeight="1"/>
+    <row r="981" ht="18.75" customHeight="1"/>
+    <row r="982" ht="18.75" customHeight="1"/>
+    <row r="983" ht="18.75" customHeight="1"/>
+    <row r="984" ht="18.75" customHeight="1"/>
+    <row r="985" ht="18.75" customHeight="1"/>
+    <row r="986" ht="18.75" customHeight="1"/>
+    <row r="987" ht="18.75" customHeight="1"/>
+    <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
+    <row r="990" ht="18.75" customHeight="1"/>
+    <row r="991" ht="18.75" customHeight="1"/>
+    <row r="992" ht="18.75" customHeight="1"/>
+    <row r="993" ht="18.75" customHeight="1"/>
+    <row r="994" ht="18.75" customHeight="1"/>
+    <row r="995" ht="18.75" customHeight="1"/>
+    <row r="996" ht="18.75" customHeight="1"/>
+    <row r="997" ht="18.75" customHeight="1"/>
+    <row r="998" ht="18.75" customHeight="1"/>
+    <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7minfVoudMZfTFXF+wdeEGHP90jiHA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgylZDOhOI0mbDjE53qYP2U3/HqSA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="302">
   <si>
     <t>English</t>
   </si>
@@ -543,223 +543,298 @@
     <t>休憩時間</t>
   </si>
   <si>
+    <t>iyahon</t>
+  </si>
+  <si>
+    <t>イヤホン</t>
+  </si>
+  <si>
+    <t>anosangurasu</t>
+  </si>
+  <si>
+    <t>あのサングラス</t>
+  </si>
+  <si>
+    <t>anoheapin</t>
+  </si>
+  <si>
+    <t>あのヘアピン</t>
+  </si>
+  <si>
+    <t>TripleKillPink</t>
+  </si>
+  <si>
+    <t>TripleKill Pink</t>
+  </si>
+  <si>
+    <t>TripleKillGray</t>
+  </si>
+  <si>
+    <t>Triple Gray</t>
+  </si>
+  <si>
+    <t>TripleKillMaroon</t>
+  </si>
+  <si>
+    <t>Triple Maroon</t>
+  </si>
+  <si>
+    <t>pinkuYutsupoiXiaoYan</t>
+  </si>
+  <si>
+    <t>ピンク玉っぽい笑顔</t>
+  </si>
+  <si>
+    <t>pinkuYutsupoiQinYan</t>
+  </si>
+  <si>
+    <t>ピンク玉っぽい寝顔</t>
+  </si>
+  <si>
+    <t>pinkuYutsupoiuinku</t>
+  </si>
+  <si>
+    <t>ピンク玉っぽいウィンク</t>
+  </si>
+  <si>
+    <t>pinkuYutsupoiBeishiiYan</t>
+  </si>
+  <si>
+    <t>ピンク玉っぽい悲しい顔</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>Admin作</t>
   </si>
   <si>
+    <t>surprised</t>
+  </si>
+  <si>
     <t>驚愕</t>
   </si>
   <si>
+    <t>onsen</t>
+  </si>
+  <si>
     <t>10秒で書いた</t>
   </si>
   <si>
+    <t>tinfoil_hat</t>
+  </si>
+  <si>
     <t>思考盗聴対策</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>surprised</t>
+    <t>graffiti</t>
   </si>
   <si>
     <t>落書き</t>
   </si>
   <si>
+    <t>Killing</t>
+  </si>
+  <si>
     <t>殺意</t>
   </si>
   <si>
-    <t>onsen</t>
-  </si>
-  <si>
-    <t>tinfoil_hat</t>
+    <t>bom_maimai</t>
   </si>
   <si>
     <t>バクダンマイマイ</t>
   </si>
   <si>
+    <t>beer_maimai</t>
+  </si>
+  <si>
     <t>ビールマイマイ</t>
   </si>
   <si>
-    <t>graffiti</t>
+    <t>arumikan_turunoda</t>
   </si>
   <si>
     <t>あるミカン（つるのだ）</t>
   </si>
   <si>
-    <t>Killing</t>
+    <t>arumikan_zundamon</t>
   </si>
   <si>
     <t>あるミカン（ZUNDAMON）</t>
   </si>
   <si>
+    <t>arumikan_zundanrg</t>
+  </si>
+  <si>
     <t>あるミカン（ZUNDANRG）</t>
   </si>
   <si>
-    <t>bom_maimai</t>
+    <t>arumikan_grape</t>
   </si>
   <si>
     <t>あるミカン（グレープ）</t>
   </si>
   <si>
-    <t>beer_maimai</t>
+    <t>arumikan_tea</t>
   </si>
   <si>
     <t>あるミカン（お茶）</t>
   </si>
   <si>
-    <t>arumikan_turunoda</t>
+    <t>arumikan_zunpis</t>
   </si>
   <si>
     <t>あるミカン（ズンピス）</t>
   </si>
   <si>
-    <t>arumikan_zundamon</t>
+    <t>oyaki_maimai</t>
   </si>
   <si>
     <t>オヤキマイマイ</t>
   </si>
   <si>
-    <t>arumikan_zundanrg</t>
+    <t>short_maimai</t>
   </si>
   <si>
     <t>けーきまいまい</t>
   </si>
   <si>
-    <t>arumikan_grape</t>
+    <t>maimai_oyaki_reinoshippo</t>
   </si>
   <si>
     <t>しっぽパン入りおやきマイマイ</t>
   </si>
   <si>
-    <t>arumikan_tea</t>
+    <t>maimai_oyaki_zunshippo</t>
   </si>
   <si>
     <t>ずんしっぽおやきマイマイ</t>
   </si>
   <si>
-    <t>arumikan_zunpis</t>
+    <t>maimai_purin</t>
   </si>
   <si>
     <t>プリンマイマイ</t>
   </si>
   <si>
-    <t>oyaki_maimai</t>
+    <t>mint_maimai</t>
   </si>
   <si>
     <t>チョコミントマイマイ</t>
   </si>
   <si>
-    <t>short_maimai</t>
-  </si>
-  <si>
-    <t>maimai_oyaki_reinoshippo</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
-    <t>maimai_oyaki_zunshippo</t>
+    <t>Brightface</t>
   </si>
   <si>
     <t>照れ顔(人型専用)</t>
   </si>
   <si>
-    <t>maimai_purin</t>
+    <t>Businessmen</t>
   </si>
   <si>
     <t>会社員(人型専用)</t>
   </si>
   <si>
-    <t>mint_maimai</t>
+    <t>supeshio</t>
   </si>
   <si>
     <t>スペ塩作</t>
   </si>
   <si>
+    <t>hige</t>
+  </si>
+  <si>
     <t>ひげ</t>
   </si>
   <si>
-    <t>Brightface</t>
-  </si>
-  <si>
-    <t>Businessmen</t>
+    <t>Flowey</t>
   </si>
   <si>
     <t>例の花</t>
   </si>
   <si>
+    <t>PhotoshopFlowey</t>
+  </si>
+  <si>
     <t>フォトショップフラウィー</t>
   </si>
   <si>
-    <t>supeshio</t>
-  </si>
-  <si>
-    <t>hige</t>
+    <t>Parasite</t>
   </si>
   <si>
     <t>寄生者</t>
   </si>
   <si>
+    <t>Parasite_Green</t>
+  </si>
+  <si>
     <t>寄生者(緑)</t>
   </si>
   <si>
-    <t>Flowey</t>
+    <t>RedEye</t>
   </si>
   <si>
     <t>赤目</t>
   </si>
   <si>
-    <t>PhotoshopFlowey</t>
+    <t>BigMouth</t>
   </si>
   <si>
     <t>大口</t>
   </si>
   <si>
+    <t>EyeThunder</t>
+  </si>
+  <si>
     <t>眼雷</t>
   </si>
   <si>
-    <t>Parasite</t>
+    <t>Parasite_Another</t>
   </si>
   <si>
     <t>寄生者(亜種)</t>
   </si>
   <si>
-    <t>Parasite_Green</t>
+    <t>Parasite_ClearBlue</t>
   </si>
   <si>
     <t>寄生者(青スライム)</t>
   </si>
   <si>
-    <t>RedEye</t>
+    <t>Parasite_ClearGreen</t>
   </si>
   <si>
     <t>寄生者(緑スライム)</t>
   </si>
   <si>
-    <t>BigMouth</t>
+    <t>Parasite_Purple</t>
   </si>
   <si>
     <t>寄生者(紫)</t>
   </si>
   <si>
-    <t>EyeThunder</t>
+    <t>Parasite_Red</t>
   </si>
   <si>
     <t>寄生者(赤)</t>
   </si>
   <si>
-    <t>Parasite_Another</t>
+    <t>Parasite_Rose</t>
   </si>
   <si>
     <t>寄生花</t>
   </si>
   <si>
-    <t>Parasite_ClearBlue</t>
+    <t>7Cap</t>
   </si>
   <si>
     <t>7の帽子 (単体)</t>
   </si>
   <si>
-    <t>Parasite_ClearGreen</t>
+    <t>7Cap_with_Hair</t>
   </si>
   <si>
     <r>
@@ -788,110 +863,95 @@
     </r>
   </si>
   <si>
-    <t>Parasite_Purple</t>
+    <t>GoldCircletB</t>
   </si>
   <si>
     <t>金のサークレット(青)</t>
   </si>
   <si>
-    <t>Parasite_Red</t>
+    <t>GoldCircletG</t>
   </si>
   <si>
     <t>金のサークレット(緑)</t>
   </si>
   <si>
-    <t>Parasite_Rose</t>
+    <t>GoldCircletR</t>
   </si>
   <si>
     <t>金のサークレット(赤)</t>
   </si>
   <si>
-    <t>7Cap</t>
+    <t>GoldCrown</t>
   </si>
   <si>
     <t>金の王冠</t>
   </si>
   <si>
-    <t>7Cap_with_Hair</t>
+    <t>PhantomMask</t>
   </si>
   <si>
     <t>怪人の仮面(半)</t>
   </si>
   <si>
-    <t>GoldCircletB</t>
+    <t>PhantomMask2</t>
   </si>
   <si>
     <t>怪人の仮面(全)</t>
   </si>
   <si>
-    <t>GoldCircletG</t>
-  </si>
-  <si>
-    <t>GoldCircletR</t>
-  </si>
-  <si>
-    <t>GoldCrown</t>
+    <t>Annkomon</t>
   </si>
   <si>
     <t>あんこもん</t>
   </si>
   <si>
-    <t>PhantomMask</t>
+    <t>Guwa</t>
   </si>
   <si>
     <t>四コマずんちゃん192話</t>
   </si>
   <si>
-    <t>PhantomMask2</t>
+    <t>Kashiwa_mini</t>
   </si>
   <si>
     <t>かしわもち</t>
   </si>
   <si>
+    <t>OhagiA_mini</t>
+  </si>
+  <si>
     <t>おはぎ（あんこ）</t>
   </si>
   <si>
+    <t>OhagiK_mini</t>
+  </si>
+  <si>
     <t>おはぎ（きなこ）</t>
   </si>
   <si>
-    <t>Annkomon</t>
+    <t>Zunda_mini</t>
   </si>
   <si>
     <t>ずんだ</t>
   </si>
   <si>
-    <t>Guwa</t>
+    <t>Zunndamon</t>
   </si>
   <si>
     <t>ずんだもん</t>
   </si>
   <si>
-    <t>Kashiwa_mini</t>
-  </si>
-  <si>
-    <t>OhagiA_mini</t>
+    <t>GoodButton</t>
   </si>
   <si>
     <t>いいね！ボタン</t>
-  </si>
-  <si>
-    <t>OhagiK_mini</t>
-  </si>
-  <si>
-    <t>Zunda_mini</t>
-  </si>
-  <si>
-    <t>Zunndamon</t>
-  </si>
-  <si>
-    <t>GoodButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -901,12 +961,16 @@
     <font>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -936,11 +1000,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1966,131 +2030,193 @@
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M86" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M87" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="M88" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="M89" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="M90" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="18.75" customHeight="1"/>
-    <row r="94" ht="18.75" customHeight="1"/>
-    <row r="95" ht="18.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1">
-      <c r="M102" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
+    <row r="102" ht="18.75" customHeight="1"/>
     <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="M103" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1">
-      <c r="M105" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" ht="18.75" customHeight="1"/>
     <row r="106" ht="18.75" customHeight="1">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4" t="s">
-        <v>178</v>
+      <c r="A106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="107" ht="18.75" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" ht="18.75" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
+      <c r="A107" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" customHeight="1"/>
     <row r="109" ht="18.75" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="M109" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" ht="18.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="111" ht="18.75" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
+        <v>205</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1"/>
     <row r="112" ht="18.75" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -2103,12 +2229,12 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" ht="18.75" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>187</v>
+      <c r="A113" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2122,12 +2248,12 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>189</v>
+      <c r="A114" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2141,10 +2267,13 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" ht="18.75" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -2157,12 +2286,12 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" ht="18.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2176,93 +2305,93 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" ht="18.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>194</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" ht="18.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+        <v>219</v>
+      </c>
       <c r="M118" s="4" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" ht="18.75" customHeight="1">
-      <c r="A119" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>199</v>
+      <c r="A119" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="120" ht="18.75" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4" t="s">
-        <v>201</v>
+      <c r="A120" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="121" ht="18.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>203</v>
+        <v>225</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="122" ht="18.75" customHeight="1">
-      <c r="A122" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4" t="s">
-        <v>205</v>
+      <c r="A122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="123" ht="18.75" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>206</v>
+      <c r="A123" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2276,12 +2405,12 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" ht="18.75" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>208</v>
+      <c r="A124" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2295,258 +2424,248 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" ht="18.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" ht="18.75" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
+        <v>233</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" ht="18.75" customHeight="1"/>
     <row r="127" ht="18.75" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>213</v>
+      <c r="A127" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" ht="18.75" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>215</v>
+      <c r="A128" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" ht="18.75" customHeight="1">
-      <c r="A129" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="130" ht="18.75" customHeight="1">
-      <c r="M130" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
+      <c r="A129" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" ht="18.75" customHeight="1"/>
     <row r="131" ht="18.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" ht="18.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133" ht="18.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M133" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
+        <v>242</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" ht="18.75" customHeight="1"/>
     <row r="134" ht="18.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="M134" s="4" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" ht="18.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="136" ht="18.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
+        <v>246</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" ht="18.75" customHeight="1"/>
     <row r="137" ht="18.75" customHeight="1">
+      <c r="A137" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="M137" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" ht="18.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>228</v>
+      <c r="A138" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" ht="18.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>230</v>
+      <c r="A139" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" ht="18.75" customHeight="1">
+      <c r="A140" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="M140" s="1" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" ht="18.75" customHeight="1">
       <c r="A141" s="6" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" ht="18.75" customHeight="1">
       <c r="A142" s="6" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" ht="18.75" customHeight="1">
       <c r="A143" s="6" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" ht="18.75" customHeight="1">
       <c r="A144" s="6" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" ht="18.75" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" ht="18.75" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" ht="18.75" customHeight="1">
       <c r="A147" s="6" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" ht="18.75" customHeight="1">
       <c r="A148" s="6" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" ht="18.75" customHeight="1">
       <c r="A149" s="6" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" ht="18.75" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" ht="18.75" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" ht="18.75" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" ht="18.75" customHeight="1">
       <c r="A153" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="M153" s="4" t="s">
-        <v>258</v>
+        <v>280</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="154" ht="18.75" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" ht="18.75" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M155" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="156" ht="18.75" customHeight="1">
-      <c r="A156" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="157" ht="18.75" customHeight="1">
-      <c r="A157" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
+      <c r="A156" s="6"/>
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" ht="18.75" customHeight="1"/>
     <row r="158" ht="18.75" customHeight="1">
-      <c r="A158" s="6" t="s">
-        <v>265</v>
+      <c r="A158" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2560,12 +2679,12 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" ht="18.75" customHeight="1">
-      <c r="A159" s="6" t="s">
-        <v>267</v>
+      <c r="A159" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2579,11 +2698,13 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" ht="18.75" customHeight="1">
-      <c r="A160" s="6"/>
+      <c r="A160" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -2596,10 +2717,13 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" ht="18.75" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -2612,12 +2736,12 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" ht="18.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2631,12 +2755,12 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" ht="18.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2650,43 +2774,41 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" ht="18.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="165" ht="18.75" customHeight="1">
-      <c r="A165" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
+        <v>298</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" ht="18.75" customHeight="1"/>
     <row r="166" ht="18.75" customHeight="1">
-      <c r="A166" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" ht="18.75" customHeight="1">
-      <c r="A167" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="168" ht="18.75" customHeight="1">
-      <c r="A168" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
+      <c r="A166" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" ht="18.75" customHeight="1"/>
+    <row r="168" ht="18.75" customHeight="1"/>
     <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1">
-      <c r="A170" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
+    <row r="170" ht="18.75" customHeight="1"/>
     <row r="171" ht="18.75" customHeight="1"/>
     <row r="172" ht="18.75" customHeight="1"/>
     <row r="173" ht="18.75" customHeight="1"/>
@@ -3517,6 +3639,7 @@
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -570,13 +570,13 @@
     <t>TripleKillGray</t>
   </si>
   <si>
-    <t>Triple Gray</t>
+    <t>TripleKill Gray</t>
   </si>
   <si>
     <t>TripleKillMaroon</t>
   </si>
   <si>
-    <t>Triple Maroon</t>
+    <t>TripleKill Maroon</t>
   </si>
   <si>
     <t>pinkuYutsupoiXiaoYan</t>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="310">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t xml:space="preserve">りぼん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SstTAarR</t>
   </si>
   <si>
     <t xml:space="preserve">tondemonaYuGan</t>
@@ -1069,13 +1066,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1006"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M105" activeCellId="0" sqref="M105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -2031,84 +2028,95 @@
         <v>201</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M105" s="3" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M107" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
     <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M109" s="1" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M110" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M113" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
     <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M115" s="1" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2122,12 +2130,12 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2141,12 +2149,12 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2160,12 +2168,12 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2179,12 +2187,12 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2198,93 +2206,93 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
+        <v>227</v>
+      </c>
       <c r="M122" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
       <c r="M123" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
+        <v>231</v>
+      </c>
       <c r="M124" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
       <c r="M125" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
+        <v>235</v>
+      </c>
       <c r="M126" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
       <c r="M127" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>238</v>
+      <c r="A128" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2298,12 +2306,12 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>240</v>
+      <c r="A129" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2317,248 +2325,248 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M131" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>244</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M134" s="1" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M135" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M137" s="1" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M138" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
     <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M140" s="1" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="M141" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
     <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M160" s="1" t="s">
+      <c r="A160" s="4"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4"/>
-      <c r="M161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2572,12 +2580,12 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2591,12 +2599,12 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2610,12 +2618,12 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2629,12 +2637,12 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2648,12 +2656,12 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2667,37 +2675,19 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+      <c r="M170" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M171" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
+    </row>
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3532,7 +3522,7 @@
     <row r="1003" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1005" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1006" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\VisualStudioProject\AmongUs\ExtremeVisor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026D9FD0-D603-4927-AF73-811647FFDD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="yukieiji"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="38640" windowHeight="21240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hat" sheetId="1" r:id="rId1"/>
+    <sheet name="Hat" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1692094843" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1692094843" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1692094843" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1692094843"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="321">
   <si>
     <t>English</t>
   </si>
@@ -957,9 +955,15 @@
     <t>いいね！ボタン</t>
   </si>
   <si>
+    <t>xx</t>
+  </si>
+  <si>
     <t>××</t>
   </si>
   <si>
+    <t>NowLoding</t>
+  </si>
+  <si>
     <t>ロード中…</t>
   </si>
   <si>
@@ -975,66 +979,140 @@
     <t>ゆるーい感じ</t>
   </si>
   <si>
-    <t>NowLoding</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="2"/>
+    <t>sakabanbasupisu</t>
+  </si>
+  <si>
+    <t>Sacabambaspis</t>
+  </si>
+  <si>
+    <t>サカバンバスピス</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;¥&quot;;[Red]\-#,##0.00\ &quot;¥&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;¥&quot;_-;\-* #,##0\ &quot;¥&quot;_-;_-* &quot;-&quot;\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <charset val="1"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" ulstyle="none" kern="1">
+            <pm:latin face="游ゴシック" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <color rgb="FFCE9178"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" fgClr="CE9178" ulstyle="none" kern="1">
+            <pm:latin face="Consolas" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1692094843" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1692094843"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1692094843"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,31 +1120,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1692094843" count="1">
+        <pm:charStyle name="標準" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1692094843" count="1">
+        <pm:color name="色 24" rgb="CE9178"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1076,140 +1156,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="游ゴシック"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1221,163 +1207,216 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="38.875" customWidth="1"/>
-    <col min="14" max="26" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="30.622951" customWidth="1"/>
+    <col min="2" max="2" width="7.000000" customWidth="1"/>
+    <col min="3" max="12" width="8.622951" customWidth="1"/>
+    <col min="13" max="13" width="38.877049" customWidth="1"/>
+    <col min="14" max="26" width="8.622951" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1427,8 +1466,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1444,8 +1483,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1477,7 +1516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1485,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1509,9 +1548,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1535,8 +1574,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1544,9 +1583,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1554,16 +1593,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+    <row r="24" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A25" s="1" t="n">
         <v>1001001</v>
       </c>
       <c r="M25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1571,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1587,7 +1626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1595,7 +1634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -1619,7 +1658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1627,7 +1666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1635,7 +1674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1643,7 +1682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1651,7 +1690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1659,7 +1698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -1667,7 +1706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1675,7 +1714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1683,7 +1722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1691,7 +1730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -1699,7 +1738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -1707,7 +1746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -1715,7 +1754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -1723,7 +1762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -1731,7 +1770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -1739,7 +1778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -1747,7 +1786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -1755,7 +1794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -1763,7 +1802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -1771,7 +1810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -1779,7 +1818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -1787,7 +1826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -1795,7 +1834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -1803,7 +1842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
@@ -1811,7 +1850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -1819,7 +1858,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
@@ -1827,7 +1866,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>111</v>
       </c>
@@ -1835,7 +1874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
@@ -1843,7 +1882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
@@ -1851,7 +1890,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -1859,7 +1898,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -1867,7 +1906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -1875,7 +1914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -1883,7 +1922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -1891,7 +1930,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -1899,7 +1938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -1907,7 +1946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -1915,7 +1954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
@@ -1923,7 +1962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
@@ -1931,7 +1970,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -1939,7 +1978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -1947,7 +1986,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -1966,7 +2005,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -1985,7 +2024,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -2004,7 +2043,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -2023,7 +2062,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -2042,7 +2081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -2061,7 +2100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>153</v>
       </c>
@@ -2080,7 +2119,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
@@ -2099,7 +2138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
@@ -2118,7 +2157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
@@ -2137,7 +2176,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="18.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>161</v>
       </c>
@@ -2156,7 +2195,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
@@ -2175,7 +2214,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2183,7 +2222,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -2191,7 +2230,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -2199,7 +2238,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -2207,7 +2246,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -2215,7 +2254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -2223,7 +2262,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -2231,7 +2270,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -2239,7 +2278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -2247,7 +2286,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1">
       <c r="A95" t="s">
         <v>183</v>
       </c>
@@ -2255,7 +2294,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -2263,7 +2302,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -2271,7 +2310,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1">
       <c r="A98" t="s">
         <v>189</v>
       </c>
@@ -2279,7 +2318,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -2287,7 +2326,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1">
       <c r="A100" t="s">
         <v>193</v>
       </c>
@@ -2295,7 +2334,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1">
       <c r="A101" t="s">
         <v>195</v>
       </c>
@@ -2303,7 +2342,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -2311,7 +2350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1">
       <c r="A103" t="s">
         <v>199</v>
       </c>
@@ -2319,7 +2358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1">
       <c r="A104" t="s">
         <v>201</v>
       </c>
@@ -2327,9 +2366,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="106" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="107" spans="1:13" ht="18.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>203</v>
       </c>
@@ -2337,7 +2376,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>205</v>
       </c>
@@ -2345,8 +2384,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="110" spans="1:13" ht="18.75" customHeight="1">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -2354,7 +2393,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" ht="18.75" customHeight="1">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -2362,8 +2401,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="113" spans="1:13" ht="18.75" customHeight="1">
       <c r="A113" t="s">
         <v>211</v>
       </c>
@@ -2371,7 +2410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1">
       <c r="A114" t="s">
         <v>213</v>
       </c>
@@ -2379,8 +2418,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="116" spans="1:13" ht="18.75" customHeight="1">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -2388,7 +2427,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1">
       <c r="A117" t="s">
         <v>217</v>
       </c>
@@ -2396,7 +2435,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -2404,7 +2443,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1">
       <c r="A119" t="s">
         <v>221</v>
       </c>
@@ -2412,7 +2451,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" ht="18.75" customHeight="1">
       <c r="A120" t="s">
         <v>223</v>
       </c>
@@ -2420,7 +2459,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1">
       <c r="A121" t="s">
         <v>225</v>
       </c>
@@ -2428,7 +2467,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1">
       <c r="A122" t="s">
         <v>227</v>
       </c>
@@ -2436,7 +2475,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1">
       <c r="A123" t="s">
         <v>229</v>
       </c>
@@ -2444,7 +2483,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" ht="18.75" customHeight="1">
       <c r="A124" t="s">
         <v>231</v>
       </c>
@@ -2452,7 +2491,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -2460,7 +2499,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" ht="18.75" customHeight="1">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -2468,7 +2507,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" ht="18.75" customHeight="1">
       <c r="A127" t="s">
         <v>237</v>
       </c>
@@ -2476,7 +2515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" ht="18.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>239</v>
       </c>
@@ -2484,7 +2523,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" ht="18.75" customHeight="1">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -2492,8 +2531,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="131" spans="1:13" ht="18.75" customHeight="1">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -2501,7 +2540,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" ht="18.75" customHeight="1">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -2509,7 +2548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="18.75" customHeight="1">
       <c r="A133" t="s">
         <v>246</v>
       </c>
@@ -2517,8 +2556,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="135" spans="1:13" ht="18.75" customHeight="1">
       <c r="A135" t="s">
         <v>248</v>
       </c>
@@ -2526,7 +2565,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" ht="18.75" customHeight="1">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -2534,8 +2573,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="138" spans="1:13" ht="18.75" customHeight="1">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -2543,7 +2582,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" ht="18.75" customHeight="1">
       <c r="A139" t="s">
         <v>254</v>
       </c>
@@ -2551,8 +2590,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="141" spans="1:13" ht="18.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>256</v>
       </c>
@@ -2560,7 +2599,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" ht="18.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>258</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" ht="18.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>260</v>
       </c>
@@ -2576,7 +2615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" ht="18.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>262</v>
       </c>
@@ -2584,7 +2623,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" ht="18.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>264</v>
       </c>
@@ -2592,7 +2631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" ht="18.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>266</v>
       </c>
@@ -2600,7 +2639,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" ht="18.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>268</v>
       </c>
@@ -2608,7 +2647,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" ht="18.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>270</v>
       </c>
@@ -2616,7 +2655,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" ht="18.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>272</v>
       </c>
@@ -2624,7 +2663,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" ht="18.75" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>274</v>
       </c>
@@ -2632,7 +2671,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" ht="18.75" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>276</v>
       </c>
@@ -2640,7 +2679,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" ht="18.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>278</v>
       </c>
@@ -2648,7 +2687,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" ht="18.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>280</v>
       </c>
@@ -2656,7 +2695,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" ht="18.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>282</v>
       </c>
@@ -2664,7 +2703,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" ht="18.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>284</v>
       </c>
@@ -2672,7 +2711,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" ht="18.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>286</v>
       </c>
@@ -2680,7 +2719,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" ht="18.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>288</v>
       </c>
@@ -2688,7 +2727,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" ht="18.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>290</v>
       </c>
@@ -2696,7 +2735,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" ht="18.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>292</v>
       </c>
@@ -2704,11 +2743,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="162" spans="1:13" ht="18.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>294</v>
       </c>
@@ -2727,7 +2766,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" ht="18.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>296</v>
       </c>
@@ -2746,7 +2785,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" ht="18.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>298</v>
       </c>
@@ -2765,7 +2804,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" ht="18.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>300</v>
       </c>
@@ -2784,7 +2823,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" ht="18.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>302</v>
       </c>
@@ -2803,7 +2842,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" ht="18.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>304</v>
       </c>
@@ -2822,7 +2861,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" ht="18.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>306</v>
       </c>
@@ -2841,8 +2880,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="170" spans="1:13" ht="18.75" customHeight="1">
       <c r="A170" t="s">
         <v>308</v>
       </c>
@@ -2850,10 +2889,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="172" spans="1:13" ht="18.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2867,12 +2906,12 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="18.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2886,12 +2925,12 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="18.75" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2905,12 +2944,12 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="18.75" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2924,842 +2963,886 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1001" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1002" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1004" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1005" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="177" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="179" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="180" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="181" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="182" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="183" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="184" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="185" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="186" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="187" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="188" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="189" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="190" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="191" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="192" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="193" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="194" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="195" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="196" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="197" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="198" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="199" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="200" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="201" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="202" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="203" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="204" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="205" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="206" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="207" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="208" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="209" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="210" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="211" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="212" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="213" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="214" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="215" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="216" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="217" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="218" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="219" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="220" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="225" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="226" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="227" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="228" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="229" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="230" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="231" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="232" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="233" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="234" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="235" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="236" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="237" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="238" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="239" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="240" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="241" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="242" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="243" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="244" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="245" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="246" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="247" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="248" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="249" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="250" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="251" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="252" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="253" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="254" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="255" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="256" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="257" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="258" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="260" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="261" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="262" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="263" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="264" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="265" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="266" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="267" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="268" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="269" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="270" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="271" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="272" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="273" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="274" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="275" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="276" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="277" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="278" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="279" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="280" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="281" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="282" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="283" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="284" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="285" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="286" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="287" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="288" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="289" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="290" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="291" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="292" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="293" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="294" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="295" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="296" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="297" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="298" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="299" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="300" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="301" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="302" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="303" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="304" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="305" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="306" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="307" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="308" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="309" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="310" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="311" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="312" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="313" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="314" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="315" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="316" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="317" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="318" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="319" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="320" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="321" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="322" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="323" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="324" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="325" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="326" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="327" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="328" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="329" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="330" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="331" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="332" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="333" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="334" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="335" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="336" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="337" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="338" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="339" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="340" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="341" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="342" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="343" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="344" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="345" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="346" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="347" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="348" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="349" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="350" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="351" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="352" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="353" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="354" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="355" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="356" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="357" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="358" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="359" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="360" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="361" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="362" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="363" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="364" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="365" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="366" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="367" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="368" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="369" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="370" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="371" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="372" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="373" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="374" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="375" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="376" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="377" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="378" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="379" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="380" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="381" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="382" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="383" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="384" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="385" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="386" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="387" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="388" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="389" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="390" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="391" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="392" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="393" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="394" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="395" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="396" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="397" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="398" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="399" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="400" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="401" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="402" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="403" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="404" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="405" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="406" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="407" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="408" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="409" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="410" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="411" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="412" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="413" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="414" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="415" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="416" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="417" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="418" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="419" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="420" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="421" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="422" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="423" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="424" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="425" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="426" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="427" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="428" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="429" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="430" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="431" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="432" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="433" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="434" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="435" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="436" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="437" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="438" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="439" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="440" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="441" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="442" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="443" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="444" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="445" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="446" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="447" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="448" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="449" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="450" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="451" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="452" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="453" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="454" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="455" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="456" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="457" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="458" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="459" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="460" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="461" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="462" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="463" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="464" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="465" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="466" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="467" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="468" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="469" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="470" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="471" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="472" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="473" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="474" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="475" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="476" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="477" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="478" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="479" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="480" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="481" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="482" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="483" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="484" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="485" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="486" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="487" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="488" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="489" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="490" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="491" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="492" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="493" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="494" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="495" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="496" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="497" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="498" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="499" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="500" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="501" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="502" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="503" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="504" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="505" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="506" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="507" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="508" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="509" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="510" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="511" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="512" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="513" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="514" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="515" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="516" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="517" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="518" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="519" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="520" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="521" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="522" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="523" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="524" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="525" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="526" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="527" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="528" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="529" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="530" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="531" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="532" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="533" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="534" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="535" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="536" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="537" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="538" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="539" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="540" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="541" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="542" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="543" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="544" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="545" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="546" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="547" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="548" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="549" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="550" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="551" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="552" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="553" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="554" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="555" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="556" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="557" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="558" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="559" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="560" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="561" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="562" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="563" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="564" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="565" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="566" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="567" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="568" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="569" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="570" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="571" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="572" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="573" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="574" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="575" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="576" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="577" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="578" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="579" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="580" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="581" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="582" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="583" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="584" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="585" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="586" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="587" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="588" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="589" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="590" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="591" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="592" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="593" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="594" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="595" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="596" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="597" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="598" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="599" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="600" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="601" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="602" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="603" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="604" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="605" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="606" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="607" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="608" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="609" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="610" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="611" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="612" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="613" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="614" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="615" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="616" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="617" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="618" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="619" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="620" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="621" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="622" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="623" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="624" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="625" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="626" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="627" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="628" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="629" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="630" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="631" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="632" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="633" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="634" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="635" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="636" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="637" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="638" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="639" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="640" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="641" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="642" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="643" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="644" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="645" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="646" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="647" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="648" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="649" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="650" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="651" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="652" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="653" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="654" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="655" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="656" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="657" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="658" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="659" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="660" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="661" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="662" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="663" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="664" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="665" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="666" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="667" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="668" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="669" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="670" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="671" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="672" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="673" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="674" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="675" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="676" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="677" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="678" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="679" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="680" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="681" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="682" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="683" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="684" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="685" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="686" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="687" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="688" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="689" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="690" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="691" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="692" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="693" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="694" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="695" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="696" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="697" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="698" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="699" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="700" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="701" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="702" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="703" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="704" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="705" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="706" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="707" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="708" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="709" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="710" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="711" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="712" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="713" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="714" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="715" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="716" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="717" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="718" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="719" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="720" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="721" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="722" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="723" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="724" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="725" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="726" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="727" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="728" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="729" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="730" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="731" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="732" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="733" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="734" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="735" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="736" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="737" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="738" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="739" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="740" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="741" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="742" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="743" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="744" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="745" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="746" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="747" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="748" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="749" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="750" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="751" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="752" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="753" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="754" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="755" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="756" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="757" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="758" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="759" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="760" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="761" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="762" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="763" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="764" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="765" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="766" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="767" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="768" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="769" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="770" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="771" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="772" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="773" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="774" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="775" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="776" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="777" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="778" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="779" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="780" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="781" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="782" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="783" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="784" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="785" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="786" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="787" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="788" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="789" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="790" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="791" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="792" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="793" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="794" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="795" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="796" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="797" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="798" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="799" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="800" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="801" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="802" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="803" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="804" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="805" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="806" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="807" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="808" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="809" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="810" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="811" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="812" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="813" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="814" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="815" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="816" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="817" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="818" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="819" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="820" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="821" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="822" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="823" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="824" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="825" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="826" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="827" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="828" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="829" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="830" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="831" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="832" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="833" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="834" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="835" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="836" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="837" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="838" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="839" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="840" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="841" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="842" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="843" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="844" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="845" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="846" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="847" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="848" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="849" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="850" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="851" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="852" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="853" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="854" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="855" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="856" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="857" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="858" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="859" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="860" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="861" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="862" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="863" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="864" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="865" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="866" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="867" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="868" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="869" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="870" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="871" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="872" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="873" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="874" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="875" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="876" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="877" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="878" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="879" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="880" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="881" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="882" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="883" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="884" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="885" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="886" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="887" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="888" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="889" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="890" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="891" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="892" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="893" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="894" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="895" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="896" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="897" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="898" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="899" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="900" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="901" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="902" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="903" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="904" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="905" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="906" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="907" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="908" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="909" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="910" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="911" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="912" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="913" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="914" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="915" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="916" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="917" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="918" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="919" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="920" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="921" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="922" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="923" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="924" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="925" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="926" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="927" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="928" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="929" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="930" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="931" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="932" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="933" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="934" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="935" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="936" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="937" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="938" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="939" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="940" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="941" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="942" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="943" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="944" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="945" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="946" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="947" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="948" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="949" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="950" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="951" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="952" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="953" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="954" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="955" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="956" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="957" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="958" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="959" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="960" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="961" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="962" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="963" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="964" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="965" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="966" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="967" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="968" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="969" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="970" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="971" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="972" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="973" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="974" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="975" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="976" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="977" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="978" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="979" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="980" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="981" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="982" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="983" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="984" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="985" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="986" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="987" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="988" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="989" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="990" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="991" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="992" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="993" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="994" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="995" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="996" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="997" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="998" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="999" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1000" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1001" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1002" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1003" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1004" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1005" spans="1:1" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1692094843" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1692094843" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1692094843" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1692094843" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1692094843" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1692094843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1692094843" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1692094843" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1692094843" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1692094843"/>
+      <pm:revision xmlns:pm="smNativeData" day="1693570096" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1693570096" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1693570096" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1693570096"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="323">
   <si>
     <t>English</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>ロックオン！！</t>
+  </si>
+  <si>
+    <t>MagicCircle_Animation</t>
+  </si>
+  <si>
+    <t>瞳の奥のその奥(アニメショーン)</t>
   </si>
   <si>
     <t>magicCircleVisor</t>
@@ -1011,7 +1017,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1026,7 +1032,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1041,7 +1047,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1692094843" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1063,7 +1069,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1692094843" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1693570096" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1085,7 +1091,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1692094843"/>
+          <pm:border xmlns:pm="smNativeData" id="1693570096"/>
         </ext>
       </extLst>
     </border>
@@ -1104,7 +1110,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1692094843"/>
+          <pm:border xmlns:pm="smNativeData" id="1693570096"/>
         </ext>
       </extLst>
     </border>
@@ -1112,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,9 +1129,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,10 +1137,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1692094843" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1693570096" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1692094843" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1693570096" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -1401,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:Q1005"/>
+  <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
@@ -1483,15 +1486,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
@@ -1548,16 +1551,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" t="s">
         <v>38</v>
@@ -1574,37 +1577,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" t="s">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="22" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+    <row r="23" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A26" s="1" t="n">
         <v>1001001</v>
-      </c>
-      <c r="M25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>47</v>
       </c>
       <c r="M26" t="s">
         <v>48</v>
@@ -1631,12 +1634,12 @@
         <v>53</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M30" t="s">
         <v>55</v>
@@ -1647,12 +1650,12 @@
         <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
         <v>58</v>
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
       <c r="M34" t="s">
@@ -1683,7 +1686,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M36" t="s">
@@ -1715,7 +1718,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="M40" t="s">
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="M41" t="s">
@@ -1731,7 +1734,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="M42" t="s">
@@ -1846,7 +1849,7 @@
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1990,17 +1993,6 @@
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
         <v>142</v>
       </c>
@@ -2215,10 +2207,21 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M86" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2366,16 +2369,16 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="105" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="M105" t="s">
+        <v>204</v>
+      </c>
+    </row>
     <row r="106" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M107" t="s">
-        <v>204</v>
-      </c>
-    </row>
+    <row r="107" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="108" spans="1:13" ht="18.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>205</v>
@@ -2384,15 +2387,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A110" t="s">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M109" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="110" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="111" spans="1:13" ht="18.75" customHeight="1">
       <c r="A111" t="s">
         <v>209</v>
@@ -2401,15 +2404,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A113" t="s">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A112" t="s">
         <v>211</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M112" t="s">
         <v>212</v>
       </c>
     </row>
+    <row r="113" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="114" spans="1:13" ht="18.75" customHeight="1">
       <c r="A114" t="s">
         <v>213</v>
@@ -2418,15 +2421,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A116" t="s">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A115" t="s">
         <v>215</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M115" t="s">
         <v>216</v>
       </c>
     </row>
+    <row r="116" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="117" spans="1:13" ht="18.75" customHeight="1">
       <c r="A117" t="s">
         <v>217</v>
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>239</v>
       </c>
       <c r="M128" t="s">
@@ -2524,25 +2527,25 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>241</v>
       </c>
       <c r="M129" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A131" t="s">
+    <row r="130" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A130" t="s">
         <v>243</v>
       </c>
-      <c r="M131" t="s">
-        <v>243</v>
-      </c>
-    </row>
+      <c r="M130" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="132" spans="1:13" ht="18.75" customHeight="1">
       <c r="A132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M132" t="s">
         <v>245</v>
@@ -2556,15 +2559,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A135" t="s">
+    <row r="134" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A134" t="s">
         <v>248</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M134" t="s">
         <v>249</v>
       </c>
     </row>
+    <row r="135" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="136" spans="1:13" ht="18.75" customHeight="1">
       <c r="A136" t="s">
         <v>250</v>
@@ -2573,15 +2576,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="138" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A138" t="s">
+    <row r="137" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A137" t="s">
         <v>252</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M137" t="s">
         <v>253</v>
       </c>
     </row>
+    <row r="138" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="139" spans="1:13" ht="18.75" customHeight="1">
       <c r="A139" t="s">
         <v>254</v>
@@ -2590,15 +2593,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="141" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A141" s="2" t="s">
+    <row r="140" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A140" t="s">
         <v>256</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M140" t="s">
         <v>257</v>
       </c>
     </row>
+    <row r="141" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="142" spans="1:13" ht="18.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>258</v>
@@ -2743,29 +2746,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="162" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A162" s="1" t="s">
+    <row r="160" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A160" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1" t="s">
+      <c r="M160" t="s">
         <v>295</v>
       </c>
     </row>
+    <row r="161" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="163" spans="1:13" ht="18.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>296</v>
@@ -2880,37 +2872,37 @@
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="170" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A170" t="s">
+    <row r="169" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M170" t="s">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="172" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A172" s="3" t="s">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="171" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A171" t="s">
         <v>310</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1" t="s">
+      <c r="M171" t="s">
         <v>311</v>
       </c>
     </row>
+    <row r="172" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="173" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B173" s="1"/>
@@ -2966,29 +2958,47 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="177" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A177" s="5" t="s">
+    <row r="176" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A176" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5" t="s">
+    </row>
+    <row r="177" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="178" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A178" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="18.75" customHeight="1"/>
+      <c r="B178" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="179" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="180" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="181" spans="1:1" ht="18.75" customHeight="1"/>
@@ -3816,11 +3826,12 @@
     <row r="1003" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="1004" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="1005" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="1006" spans="1:1" ht="18.75" customHeight="1"/>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1692094843" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1693570096" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3829,16 +3840,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1692094843" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1692094843" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1692094843" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1692094843" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1693570096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1693570096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1693570096" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1693570096" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1692094843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693570096" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yukieiji"/>
+  <fileSharing readOnlyRecommended="0" userName="yuki"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="38640" windowHeight="21240" tabRatio="500"/>
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1693570096" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1693570096" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1693570096" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1693570096"/>
+      <pm:revision xmlns:pm="smNativeData" day="1695467857" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1695467857" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1695467857" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1695467857"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="332">
   <si>
     <t>English</t>
   </si>
@@ -992,6 +992,33 @@
   </si>
   <si>
     <t>サカバンバスピス</t>
+  </si>
+  <si>
+    <t>teitaimu</t>
+  </si>
+  <si>
+    <t>tea time</t>
+  </si>
+  <si>
+    <t>ティータイム</t>
+  </si>
+  <si>
+    <t>miniyotsuchiyan</t>
+  </si>
+  <si>
+    <t>mini_pterosaur</t>
+  </si>
+  <si>
+    <t>ミニよっちゃん</t>
+  </si>
+  <si>
+    <t>kamereon_hatena</t>
+  </si>
+  <si>
+    <t>Chameleon？</t>
+  </si>
+  <si>
+    <t>カメレオン？</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1044,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1032,7 +1059,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1047,7 +1074,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693570096" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1056,26 +1083,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1693570096" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1091,26 +1107,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693570096"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693570096"/>
+          <pm:border xmlns:pm="smNativeData" id="1695467857"/>
         </ext>
       </extLst>
     </border>
@@ -1118,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1130,6 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1137,10 +1135,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1693570096" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1695467857" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1693570096" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1695467857" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -1406,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
@@ -2999,9 +2997,69 @@
         <v>322</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="180" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="181" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="179" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
     <row r="182" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="183" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="184" spans="1:1" ht="18.75" customHeight="1"/>
@@ -3831,7 +3889,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1693570096" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1695467857" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3840,16 +3898,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1693570096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1693570096" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1693570096" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1693570096" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1695467857" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1695467857" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695467857" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1695467857" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693570096" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695467857" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yuki"/>
+  <fileSharing readOnlyRecommended="0" userName="yukieiji"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="38640" windowHeight="21240" tabRatio="500"/>
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695467857" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695467857" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695467857" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695467857"/>
+      <pm:revision xmlns:pm="smNativeData" day="1701009510" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1701009510" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1701009510" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1701009510"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="335">
   <si>
     <t>English</t>
   </si>
@@ -1006,7 +1006,7 @@
     <t>miniyotsuchiyan</t>
   </si>
   <si>
-    <t>mini_pterosaur</t>
+    <t>mini pterosaur</t>
   </si>
   <si>
     <t>ミニよっちゃん</t>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>カメレオン？</t>
+  </si>
+  <si>
+    <t>KuangtsutaYan</t>
+  </si>
+  <si>
+    <t>crazy face</t>
+  </si>
+  <si>
+    <t>狂った顔</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1053,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1059,7 +1068,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1074,7 +1083,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695467857" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1083,15 +1092,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1701009510" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1107,7 +1127,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695467857"/>
+          <pm:border xmlns:pm="smNativeData" id="1701009510"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1701009510"/>
         </ext>
       </extLst>
     </border>
@@ -1135,10 +1174,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695467857" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1701009510" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1695467857" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1701009510" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -1404,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
@@ -2998,69 +3037,89 @@
       </c>
     </row>
     <row r="179" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="5" t="s">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5" t="s">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5" t="s">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="182" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
     <row r="183" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="184" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="185" spans="1:1" ht="18.75" customHeight="1"/>
@@ -3889,7 +3948,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695467857" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1701009510" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3898,16 +3957,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695467857" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695467857" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695467857" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695467857" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1701009510" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1701009510" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1701009510" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1701009510" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695467857" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1701009510" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1701009510" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1701009510" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1701009510" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1701009510"/>
+      <pm:revision xmlns:pm="smNativeData" day="1706101673" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1706101673" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1706101673" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1706101673"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="359">
   <si>
     <t>English</t>
   </si>
@@ -1028,6 +1028,78 @@
   </si>
   <si>
     <t>狂った顔</t>
+  </si>
+  <si>
+    <t>scrap_sugoiHuaiZhongDianDeng</t>
+  </si>
+  <si>
+    <t>Pro-flashlight</t>
+  </si>
+  <si>
+    <t>すごい懐中電灯</t>
+  </si>
+  <si>
+    <t>scrap_ZhimarenoBiaoShi</t>
+  </si>
+  <si>
+    <t>Stop sign</t>
+  </si>
+  <si>
+    <t>止まれの標識</t>
+  </si>
+  <si>
+    <t>scrap_shiyaberu</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>シャベル</t>
+  </si>
+  <si>
+    <t>scrap_masukuman</t>
+  </si>
+  <si>
+    <t>Masked</t>
+  </si>
+  <si>
+    <t>マスクマン</t>
+  </si>
+  <si>
+    <t>scrap_FaDianZhuangZhi</t>
+  </si>
+  <si>
+    <t>Apparatus</t>
+  </si>
+  <si>
+    <t>発電装置</t>
+  </si>
+  <si>
+    <t>scrap_pieronoDi</t>
+  </si>
+  <si>
+    <t>Clown horn</t>
+  </si>
+  <si>
+    <t>ピエロの笛</t>
+  </si>
+  <si>
+    <t>scrap_oSaLuonaranpu</t>
+  </si>
+  <si>
+    <t>Fancy lamp</t>
+  </si>
+  <si>
+    <t>お洒落なランプ</t>
+  </si>
+  <si>
+    <t>scrap_Dakinagia</t>
+  </si>
+  <si>
+    <t>Large axle</t>
+  </si>
+  <si>
+    <t>大きなギア</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1125,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1068,7 +1140,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1083,7 +1155,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1701009510" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1092,26 +1164,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1701009510" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1127,26 +1188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1701009510"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1701009510"/>
+          <pm:border xmlns:pm="smNativeData" id="1706101673"/>
         </ext>
       </extLst>
     </border>
@@ -1174,10 +1216,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1701009510" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1706101673" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1701009510" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1706101673" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -1443,14 +1485,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="M184" sqref="M184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
   <cols>
     <col min="1" max="1" width="30.622951" customWidth="1"/>
-    <col min="2" max="2" width="7.000000" customWidth="1"/>
+    <col min="2" max="2" width="25.442623" customWidth="1"/>
     <col min="3" max="12" width="8.622951" customWidth="1"/>
     <col min="13" max="13" width="38.877049" customWidth="1"/>
     <col min="14" max="26" width="8.622951" customWidth="1"/>
@@ -3100,34 +3142,194 @@
       </c>
     </row>
     <row r="182" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="5" t="s">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="184" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="185" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="186" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="187" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="188" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="189" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="190" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="183" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
     <row r="191" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="192" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="193" spans="1:1" ht="18.75" customHeight="1"/>
@@ -3948,7 +4150,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1701009510" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706101673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3957,16 +4159,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1701009510" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1701009510" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1701009510" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1701009510" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706101673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706101673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706101673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706101673" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1701009510" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706101673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/VisorTransData.xlsx
+++ b/VisorTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706101673" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706101673" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706101673" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706101673"/>
+      <pm:revision xmlns:pm="smNativeData" day="1714497852" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1714497852" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1714497852" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1714497852"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="384">
   <si>
     <t>English</t>
   </si>
@@ -1100,6 +1100,81 @@
   </si>
   <si>
     <t>大きなギア</t>
+  </si>
+  <si>
+    <t>Tea time</t>
+  </si>
+  <si>
+    <t>scrap_ahiruDuiZhang</t>
+  </si>
+  <si>
+    <t>Rubber Ducky</t>
+  </si>
+  <si>
+    <t>アヒル隊長</t>
+  </si>
+  <si>
+    <t>scrap_kagi</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>カギ</t>
+  </si>
+  <si>
+    <t>scrap_daburushiyotsutogan</t>
+  </si>
+  <si>
+    <t>Double-barrel</t>
+  </si>
+  <si>
+    <t>ダブルショットガン</t>
+  </si>
+  <si>
+    <t>scrap_purezentoXiang</t>
+  </si>
+  <si>
+    <t>Gift Box</t>
+  </si>
+  <si>
+    <t>プレゼント箱</t>
+  </si>
+  <si>
+    <t>suneafuri</t>
+  </si>
+  <si>
+    <t>Snare Flea</t>
+  </si>
+  <si>
+    <t>スネアフリー</t>
+  </si>
+  <si>
+    <t>scrap_bubukutsushiyon</t>
+  </si>
+  <si>
+    <t>Whoopie-Cushion</t>
+  </si>
+  <si>
+    <t>ブーブークッション</t>
+  </si>
+  <si>
+    <t>scrap_YanZhanghashigo</t>
+  </si>
+  <si>
+    <t>Extenson Ladder</t>
+  </si>
+  <si>
+    <t>延長ハシゴ</t>
+  </si>
+  <si>
+    <t>scrap_rajikase</t>
+  </si>
+  <si>
+    <t>Boombox</t>
+  </si>
+  <si>
+    <t>ラジカセ</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1200,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497852" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1140,7 +1215,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497852" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1155,7 +1230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706101673" fgClr="CE9178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1714497852" fgClr="CE9178" ulstyle="none" kern="1">
             <pm:latin face="Consolas" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1188,7 +1263,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706101673"/>
+          <pm:border xmlns:pm="smNativeData" id="1714497852"/>
         </ext>
       </extLst>
     </border>
@@ -1216,10 +1291,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706101673" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1714497852" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1706101673" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1714497852" count="1">
         <pm:color name="色 24" rgb="CE9178"/>
       </pm:colors>
     </ext>
@@ -1486,7 +1561,7 @@
   <dimension ref="A1:Q1006"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="M184" sqref="M184"/>
+      <selection activeCell="G189" sqref="G189:H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.622951" defaultRowHeight="19.65"/>
@@ -3163,182 +3238,362 @@
       </c>
     </row>
     <row r="183" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5" t="s">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5" t="s">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5" t="s">
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5" t="s">
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5" t="s">
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5" t="s">
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5" t="s">
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5" t="s">
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="192" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="191" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
     <row r="200" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="201" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="202" spans="1:1" ht="18.75" customHeight="1"/>
@@ -4150,7 +4405,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706101673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1714497852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4159,16 +4414,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706101673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706101673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706101673" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706101673" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1714497852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1714497852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1714497852" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1714497852" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706101673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1714497852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
